--- a/HackRF/PortaPack/world_map/mercator.xlsx
+++ b/HackRF/PortaPack/world_map/mercator.xlsx
@@ -8,15 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwin\Desktop\Research\HackRF\PortaPack\world_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B542177A-4A71-44C4-8F98-ADC6A72F5A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ACB816-694A-47DE-A16B-CBE2E087B8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{557A10B8-AD66-4480-9E95-E574ED0577C1}"/>
+    <workbookView xWindow="5049" yWindow="3797" windowWidth="15625" windowHeight="15034" firstSheet="1" activeTab="2" xr2:uid="{557A10B8-AD66-4480-9E95-E574ED0577C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="simmetric" sheetId="4" r:id="rId3"/>
+    <sheet name="list" sheetId="5" r:id="rId4"/>
+    <sheet name="fit to 8192" sheetId="2" r:id="rId5"/>
+    <sheet name="regression" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="a">regression!$A$1</definedName>
+    <definedName name="b">regression!$A$2</definedName>
+    <definedName name="cc">regression!$A$3</definedName>
+    <definedName name="d">regression!$A$4</definedName>
+    <definedName name="e">regression!$A$5</definedName>
+    <definedName name="f">regression!$A$6</definedName>
+    <definedName name="g">regression!$A$7</definedName>
+    <definedName name="h">regression!$A$8</definedName>
     <definedName name="height">Sheet1!$A$1</definedName>
+    <definedName name="i">regression!$A$9</definedName>
+    <definedName name="j">regression!$A$10</definedName>
+    <definedName name="latRad">regression!$A$13</definedName>
+    <definedName name="mapHeight">regression!$A$15</definedName>
+    <definedName name="mapWidth">regression!$A$16</definedName>
+    <definedName name="mercN">regression!$A$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>pix</t>
   </si>
@@ -68,11 +87,35 @@
   <si>
     <t>perc</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +541,2052 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>simmetric!$A$1:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>5984.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5845.1388888888796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5497.9166666666597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5198.6111111111104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5195.1388888888796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5124.3055555555502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4926.3888888888796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4430.5555555555502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4284.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3924.3055555555502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3886.7564741991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3855.5555555555502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3817.3611111111099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3559.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3559.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3285.2019386163402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3193.0555555555502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3104.1666666666601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2904.1666666666601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2727.7777777777701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2132.63888888888</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2075.6944444444398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1970.13888888888</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1903.5647999999901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1853.4722222222199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1822.9166666666599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1779.9421874777499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1767.3611111111099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1222.3368417092499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1041.04643372541</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>969.62900027723094</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>799.32588974695295</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>744.38940247912103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>694.94656393807202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>497.17520977387801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>373.56811342125599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2207.2777777777801</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2346.8611111111204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2601.7222222222299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2694.0833333333403</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2993.3888888888896</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2996.8611111111204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3067.6944444444498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3265.6111111111204</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3761.4444444444498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3907.2777777777801</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4267.6944444444498</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4305.2435258009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4336.4444444444498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4374.6388888888905</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4601.7222222222299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4601.7222222222299</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4632.2777777777801</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4632.2777777777801</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4906.7980613836598</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4998.9444444444498</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5087.8333333333394</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5287.8333333333394</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5464.2222222222299</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5810</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6059.3611111111204</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6116.3055555555602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6221.8611111111204</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6288.4352000000099</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6338.5277777777801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6369.0833333333403</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6412.0578125222501</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6404</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6424.6388888888905</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6969.6631582907503</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7150.9535662745902</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7222.3709997227688</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7392.6741102530468</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7447.6105975208793</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7497.0534360619276</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7694.8247902261219</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7818.4318865787436</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>simmetric!$B$1:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>-63.575870000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.723790000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-54.782330000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-52.330469999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-43.591650000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-43.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-41.288359999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-34.288670000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.60797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2906300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5713200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.478579999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.087949999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.570830000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.617159999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.954319999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.065629999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.34986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.693820000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.849730000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.55115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.172310000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.925530000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.957470000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.966380000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.836060000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.879940000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.662019999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70.115110000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.63852</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.678640000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.939850000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77.389849999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.888120000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.583939999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.907210000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.188850000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81.563149999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82.776740000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83.277889999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.575870000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.723790000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.782330000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52.330469999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.591650000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41.288359999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.288670000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.60797</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.2906300000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.5207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.5713200000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-10.478579999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-12.087949999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-21.570830000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-21.617159999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-22.954319999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-23.065629999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-33.34986</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-36.693820000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-39.849730000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-46.55115</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-51.172310000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-59.925530000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-64.957470000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-65.966380000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-67.836060000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-68.879940000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-69.662019999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-70.115110000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-70.63852</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-70.678640000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-70.939850000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-77.389849999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-78.888120000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-79.583939999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-80.907210000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-81.188850000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-81.563149999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-82.776740000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-83.277889999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D213-4526-9FDF-AD0EBDE09C6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599348304"/>
+        <c:axId val="599348960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599348304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599348960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599348960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599348304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>X vs LON</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fit to 8192'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fit to 8192'!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>308.966399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3105.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1592.3611111111099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1670.13888888888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2218.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2205.5555555555502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2143.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2276.38888888888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2465.9722222222199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2397.2222222222199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2540.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2640.9722222222199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2822.2222222222199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3081.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8065.9722222222199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7425</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7228.4722222222199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7361.1111111111104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7656.9444444444398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2050.6944444444398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4386.1111111111104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4702.0833333333303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4645.1388888888796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4659.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4513.1944444444398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4439.5833333333303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4897.9166666666597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4515.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5400.2566984278601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6477.0118488773696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6971.4402342878502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2939.102068829</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3524.1756582314101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2472.1419270524302</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6155.63339836055</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6433.0626590631</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5900.1787325651303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5837.0017722071298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5501.8891998733498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fit to 8192'!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-166.22076000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-154.02171999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.523110000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-109.9945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-106.52785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-82.281869999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-83.171080000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-85.774829999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.930099999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-71.559690000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-74.632289999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-68.337260000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-63.844299999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-55.934139999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-44.472540000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174.56916000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.35626999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138.09456</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143.39149</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>156.66297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-89.744709999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-22.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.86124</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.660070000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.217960000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.833200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.38167</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.129720000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.299059999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.468319999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.464689999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>104.83774</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>126.7225</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-50.527790000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-26.278639999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-71.190749999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.770780000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102.81180000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79.857330000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76.869050000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.103430000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF8B-426C-A16F-7DDB61BED405}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599379136"/>
+        <c:axId val="599357488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599379136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599357488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599357488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599379136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Y vs LAT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fit to 8192'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:forward val="1000"/>
+            <c:backward val="1000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fit to 8192'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1903.5647999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3559.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3559.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3817.3611111111099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3924.3055555555502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3855.5555555555502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5198.6111111111104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5497.9166666666597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5590.2777777777701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5984.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5845.1388888888796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5124.3055555555502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5195.1388888888796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4284.7222222222199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2904.1666666666601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2727.7777777777701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2075.6944444444398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1822.9166666666599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1970.13888888888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1767.3611111111099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1853.4722222222199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2132.63888888888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3104.1666666666601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3193.0555555555502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4430.5555555555502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4926.3888888888796</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1779.9421874777499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3886.7564741991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3285.2019386163402</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>497.17520977387801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>373.56811342125599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1222.3368417092499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>744.38940247912103</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1041.04643372541</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>799.32588974695295</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>969.62900027723094</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>694.94656393807202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fit to 8192'!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>68.879940000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.678640000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.925530000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.954319999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.570830000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.065629999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.617159999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.087949999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.478579999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-43.591650000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-52.330469999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-54.782330000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-63.575870000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-60.723790000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-41.288359999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-43.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.2906300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.55115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.172310000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.966380000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.115110000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.836060000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.939850000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.662019999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.957470000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.849730000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.693820000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-14.60797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-34.288670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.63852</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5713200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.34986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.776740000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83.277889999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.389849999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.188850000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.888120000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80.907210000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.583939999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.563149999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8EB-4580-96A9-1CF1E0EC9A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="589659168"/>
+        <c:axId val="589656544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="589659168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589656544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589656544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589659168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1049,6 +3142,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1082,6 +4723,124 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310243</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A998696-29A9-41E3-91E1-B95BBFC2F035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633791</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>633791</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA16620B-717C-49E5-B9E7-C56781117C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560010</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223762</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A637DD19-0EAC-48BA-BA95-3E08537EB6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1389,7 +5148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E254FA01-9264-44BB-BA17-B3E9791C94FE}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
@@ -1487,4 +5246,6000 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A7F4C9-EFE5-4611-8019-E2BAFA61CB74}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFA2E-60FC-45CD-8FBA-2493BFB99790}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.23046875" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" customWidth="1"/>
+    <col min="3" max="3" width="21.3828125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" cm="1">
+        <f t="array" ref="A1:B1">list!A1:B1</f>
+        <v>5984.7222222222199</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-63.575870000000002</v>
+      </c>
+      <c r="C1" s="5">
+        <f>A1/8192</f>
+        <v>0.73055691189236083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" cm="1">
+        <f t="array" ref="A2:B2">list!A2:B2</f>
+        <v>5845.1388888888796</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-60.723790000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:C65" si="0">A2/8192</f>
+        <v>0.71351793077256831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" cm="1">
+        <f t="array" ref="A3:B3">list!A3:B3</f>
+        <v>5590.2777777777701</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-54.782330000000002</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68240695529513795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" cm="1">
+        <f t="array" ref="A4:B4">list!A4:B4</f>
+        <v>5497.9166666666597</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-52.330469999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67113240559895748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" cm="1">
+        <f t="array" ref="A5:B5">list!A5:B5</f>
+        <v>5198.6111111111104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-43.591650000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63459608289930547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" cm="1">
+        <f t="array" ref="A6:B6">list!A6:B6</f>
+        <v>5195.1388888888796</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-43.494999999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63417222764756831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" cm="1">
+        <f t="array" ref="A7:B7">list!A7:B7</f>
+        <v>5124.3055555555502</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-41.288359999999997</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62552558051215212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" cm="1">
+        <f t="array" ref="A8:B8">list!A8:B8</f>
+        <v>4926.3888888888796</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-34.288670000000003</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60136583116319331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" cm="1">
+        <f t="array" ref="A9:B9">list!A9:B9</f>
+        <v>4430.5555555555502</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-14.60797</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54083930121527712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" cm="1">
+        <f t="array" ref="A10:B10">list!A10:B10</f>
+        <v>4284.7222222222199</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-8.2906300000000002</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52303738064236083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" cm="1">
+        <f t="array" ref="A11:B11">list!A11:B11</f>
+        <v>3924.3055555555502</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.5207199999999998</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47904120551215212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" cm="1">
+        <f t="array" ref="A12:B12">list!A12:B12</f>
+        <v>3886.7564741991</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8.5713200000000001</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47445757741688233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" cm="1">
+        <f t="array" ref="A13:B13">list!A13:B13</f>
+        <v>3855.5555555555502</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.478579999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47064887152777712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" cm="1">
+        <f t="array" ref="A14:B14">list!A14:B14</f>
+        <v>3817.3611111111099</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12.087949999999999</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46598646375868041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" cm="1">
+        <f t="array" ref="A15:B15">list!A15:B15</f>
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21.570830000000001</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43826633029513795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" cm="1">
+        <f t="array" ref="A16:B16">list!A16:B16</f>
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="B16" s="2">
+        <v>21.617159999999998</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43826633029513795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" cm="1">
+        <f t="array" ref="A17:B17">list!A17:B17</f>
+        <v>3559.7222222222199</v>
+      </c>
+      <c r="B17" s="2">
+        <v>22.954319999999999</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43453640407986083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" cm="1">
+        <f t="array" ref="A18:B18">list!A18:B18</f>
+        <v>3559.7222222222199</v>
+      </c>
+      <c r="B18" s="2">
+        <v>23.065629999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43453640407986083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" cm="1">
+        <f t="array" ref="A19:B19">list!A19:B19</f>
+        <v>3285.2019386163402</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.34986</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.40102562727250246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" cm="1">
+        <f t="array" ref="A20:B20">list!A20:B20</f>
+        <v>3193.0555555555502</v>
+      </c>
+      <c r="B20" s="2">
+        <v>36.693820000000002</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.38977728949652712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" cm="1">
+        <f t="array" ref="A21:B21">list!A21:B21</f>
+        <v>3104.1666666666601</v>
+      </c>
+      <c r="B21" s="2">
+        <v>39.849730000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.37892659505208254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" cm="1">
+        <f t="array" ref="A22:B22">list!A22:B22</f>
+        <v>2904.1666666666601</v>
+      </c>
+      <c r="B22" s="2">
+        <v>46.55115</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.35451253255208254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" cm="1">
+        <f t="array" ref="A23:B23">list!A23:B23</f>
+        <v>2727.7777777777701</v>
+      </c>
+      <c r="B23" s="2">
+        <v>51.172310000000003</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33298068576388795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" cm="1">
+        <f t="array" ref="A24:B24">list!A24:B24</f>
+        <v>2382</v>
+      </c>
+      <c r="B24" s="2">
+        <v>59.925530000000002</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.290771484375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" cm="1">
+        <f t="array" ref="A25:B25">list!A25:B25</f>
+        <v>2132.63888888888</v>
+      </c>
+      <c r="B25" s="2">
+        <v>64.957470000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26033189561631837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" cm="1">
+        <f t="array" ref="A26:B26">list!A26:B26</f>
+        <v>2075.6944444444398</v>
+      </c>
+      <c r="B26" s="2">
+        <v>65.966380000000001</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25338066948784665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" cm="1">
+        <f t="array" ref="A27:B27">list!A27:B27</f>
+        <v>1970.13888888888</v>
+      </c>
+      <c r="B27" s="2">
+        <v>67.836060000000003</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24049546983506837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" cm="1">
+        <f t="array" ref="A28:B28">list!A28:B28</f>
+        <v>1903.5647999999901</v>
+      </c>
+      <c r="B28" s="2">
+        <v>68.879940000000005</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23236874999999879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" cm="1">
+        <f t="array" ref="A29:B29">list!A29:B29</f>
+        <v>1853.4722222222199</v>
+      </c>
+      <c r="B29" s="2">
+        <v>69.662019999999998</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.22625393337673583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" cm="1">
+        <f t="array" ref="A30:B30">list!A30:B30</f>
+        <v>1822.9166666666599</v>
+      </c>
+      <c r="B30" s="2">
+        <v>70.115110000000001</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.22252400716145751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" cm="1">
+        <f t="array" ref="A31:B31">list!A31:B31</f>
+        <v>1779.9421874777499</v>
+      </c>
+      <c r="B31" s="2">
+        <v>70.63852</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21727809905734252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" cm="1">
+        <f t="array" ref="A32:B32">list!A32:B32</f>
+        <v>1788</v>
+      </c>
+      <c r="B32" s="2">
+        <v>70.678640000000001</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21826171875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" cm="1">
+        <f t="array" ref="A33:B33">list!A33:B33</f>
+        <v>1767.3611111111099</v>
+      </c>
+      <c r="B33" s="2">
+        <v>70.939850000000007</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21574232313368041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" cm="1">
+        <f t="array" ref="A34:B34">list!A34:B34</f>
+        <v>1222.3368417092499</v>
+      </c>
+      <c r="B34" s="2">
+        <v>77.389849999999996</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14921104024771117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" cm="1">
+        <f t="array" ref="A35:B35">list!A35:B35</f>
+        <v>1041.04643372541</v>
+      </c>
+      <c r="B35" s="2">
+        <v>78.888120000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12708086349187134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" cm="1">
+        <f t="array" ref="A36:B36">list!A36:B36</f>
+        <v>969.62900027723094</v>
+      </c>
+      <c r="B36" s="2">
+        <v>79.583939999999998</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11836291507290417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" cm="1">
+        <f t="array" ref="A37:B37">list!A37:B37</f>
+        <v>799.32588974695295</v>
+      </c>
+      <c r="B37" s="2">
+        <v>80.907210000000006</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>9.7573961150751093E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" cm="1">
+        <f t="array" ref="A38:B38">list!A38:B38</f>
+        <v>744.38940247912103</v>
+      </c>
+      <c r="B38" s="2">
+        <v>81.188850000000002</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0867846982314579E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" cm="1">
+        <f t="array" ref="A39:B39">list!A39:B39</f>
+        <v>694.94656393807202</v>
+      </c>
+      <c r="B39" s="2">
+        <v>81.563149999999993</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
+        <v>8.4832344230721682E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" cm="1">
+        <f t="array" ref="A40:B40">list!A40:B40</f>
+        <v>497.17520977387801</v>
+      </c>
+      <c r="B40" s="2">
+        <v>82.776740000000004</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0690333224350343E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" cm="1">
+        <f t="array" ref="A41:B41">list!A41:B41</f>
+        <v>373.56811342125599</v>
+      </c>
+      <c r="B41" s="2">
+        <v>83.277889999999999</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5601576345368162E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <f>8192-A1</f>
+        <v>2207.2777777777801</v>
+      </c>
+      <c r="B42" s="2">
+        <f>-B1</f>
+        <v>63.575870000000002</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26944308810763917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <f t="shared" ref="A43:A82" si="1">8192-A2</f>
+        <v>2346.8611111111204</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43:B82" si="2">-B2</f>
+        <v>60.723790000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.28648206922743169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>2601.7222222222299</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="2"/>
+        <v>54.782330000000002</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31759304470486205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>2694.0833333333403</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="2"/>
+        <v>52.330469999999998</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.32886759440104252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>2993.3888888888896</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="2"/>
+        <v>43.591650000000001</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.36540391710069453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>2996.8611111111204</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="2"/>
+        <v>43.494999999999997</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.36582777235243169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>3067.6944444444498</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="2"/>
+        <v>41.288359999999997</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.37447441948784788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>3265.6111111111204</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="2"/>
+        <v>34.288670000000003</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.39863416883680669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <f t="shared" si="1"/>
+        <v>3761.4444444444498</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="2"/>
+        <v>14.60797</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45916069878472288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <f t="shared" si="1"/>
+        <v>3907.2777777777801</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="2"/>
+        <v>8.2906300000000002</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47696261935763917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <f t="shared" si="1"/>
+        <v>4267.6944444444498</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.5207199999999998</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52095879448784788</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>4305.2435258009</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.5713200000000001</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52554242258311767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>4336.4444444444498</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="2"/>
+        <v>-10.478579999999999</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52935112847222288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>4374.6388888888905</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="2"/>
+        <v>-12.087949999999999</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.53401353624131964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>4601.7222222222299</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="2"/>
+        <v>-21.570830000000001</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56173366970486205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>4601.7222222222299</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="2"/>
+        <v>-21.617159999999998</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56173366970486205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>4632.2777777777801</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="2"/>
+        <v>-22.954319999999999</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56546359592013917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>4632.2777777777801</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="2"/>
+        <v>-23.065629999999999</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56546359592013917</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>4906.7980613836598</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="2"/>
+        <v>-33.34986</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59897437272749754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>4998.9444444444498</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="2"/>
+        <v>-36.693820000000002</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61022271050347288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>5087.8333333333394</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="2"/>
+        <v>-39.849730000000001</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62107340494791741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>5287.8333333333394</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="2"/>
+        <v>-46.55115</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="0"/>
+        <v>0.64548746744791741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>5464.2222222222299</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="2"/>
+        <v>-51.172310000000003</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66701931423611205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>5810</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="2"/>
+        <v>-59.925530000000002</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="0"/>
+        <v>0.709228515625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>6059.3611111111204</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="2"/>
+        <v>-64.957470000000001</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" ref="C66:C85" si="3">A66/8192</f>
+        <v>0.73966810438368169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>6116.3055555555602</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="2"/>
+        <v>-65.966380000000001</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="3"/>
+        <v>0.74661933051215335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <f t="shared" si="1"/>
+        <v>6221.8611111111204</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
+        <v>-67.836060000000003</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="3"/>
+        <v>0.75950453016493169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <f t="shared" si="1"/>
+        <v>6288.4352000000099</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="2"/>
+        <v>-68.879940000000005</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="3"/>
+        <v>0.76763125000000121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <f t="shared" si="1"/>
+        <v>6338.5277777777801</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
+        <v>-69.662019999999998</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77374606662326417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <f t="shared" si="1"/>
+        <v>6369.0833333333403</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
+        <v>-70.115110000000001</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77747599283854252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <f t="shared" si="1"/>
+        <v>6412.0578125222501</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
+        <v>-70.63852</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="3"/>
+        <v>0.78272190094265748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <f t="shared" si="1"/>
+        <v>6404</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
+        <v>-70.678640000000001</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="3"/>
+        <v>0.78173828125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <f t="shared" si="1"/>
+        <v>6424.6388888888905</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
+        <v>-70.939850000000007</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="3"/>
+        <v>0.78425767686631964</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <f t="shared" si="1"/>
+        <v>6969.6631582907503</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
+        <v>-77.389849999999996</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="3"/>
+        <v>0.85078895975228885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <f t="shared" si="1"/>
+        <v>7150.9535662745902</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="2"/>
+        <v>-78.888120000000001</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="3"/>
+        <v>0.87291913650812869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <f t="shared" si="1"/>
+        <v>7222.3709997227688</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="2"/>
+        <v>-79.583939999999998</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="3"/>
+        <v>0.8816370849270958</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <f t="shared" si="1"/>
+        <v>7392.6741102530468</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="2"/>
+        <v>-80.907210000000006</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="3"/>
+        <v>0.90242603884924888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <f t="shared" si="1"/>
+        <v>7447.6105975208793</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="2"/>
+        <v>-81.188850000000002</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="3"/>
+        <v>0.90913215301768546</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <f t="shared" si="1"/>
+        <v>7497.0534360619276</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="2"/>
+        <v>-81.563149999999993</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91516765576927828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <f t="shared" si="1"/>
+        <v>7694.8247902261219</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="2"/>
+        <v>-82.776740000000004</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="3"/>
+        <v>0.93930966677564964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <f t="shared" si="1"/>
+        <v>7818.4318865787436</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="2"/>
+        <v>-83.277889999999999</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="3"/>
+        <v>0.95439842365463179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>8192</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-85</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2">
+        <v>85</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <f>A83/2</f>
+        <v>4096</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6A2BD8-0EC7-4995-9611-33E27F228DBC}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5984.7222222222199</v>
+      </c>
+      <c r="B1">
+        <v>-63.575870000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>5845.1388888888796</v>
+      </c>
+      <c r="B2">
+        <v>-60.723790000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>5590.2777777777701</v>
+      </c>
+      <c r="B3">
+        <v>-54.782330000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>5497.9166666666597</v>
+      </c>
+      <c r="B4">
+        <v>-52.330469999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5198.6111111111104</v>
+      </c>
+      <c r="B5">
+        <v>-43.591650000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5195.1388888888796</v>
+      </c>
+      <c r="B6">
+        <v>-43.494999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5124.3055555555502</v>
+      </c>
+      <c r="B7">
+        <v>-41.288359999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>4926.3888888888796</v>
+      </c>
+      <c r="B8">
+        <v>-34.288670000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4430.5555555555502</v>
+      </c>
+      <c r="B9">
+        <v>-14.60797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>4284.7222222222199</v>
+      </c>
+      <c r="B10">
+        <v>-8.2906300000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3924.3055555555502</v>
+      </c>
+      <c r="B11">
+        <v>7.5207199999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3886.7564741991</v>
+      </c>
+      <c r="B12">
+        <v>8.5713200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3855.5555555555502</v>
+      </c>
+      <c r="B13">
+        <v>10.478579999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3817.3611111111099</v>
+      </c>
+      <c r="B14">
+        <v>12.087949999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="B15">
+        <v>21.570830000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="B16">
+        <v>21.617159999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3559.7222222222199</v>
+      </c>
+      <c r="B17">
+        <v>22.954319999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3559.7222222222199</v>
+      </c>
+      <c r="B18">
+        <v>23.065629999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3285.2019386163402</v>
+      </c>
+      <c r="B19">
+        <v>33.34986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3193.0555555555502</v>
+      </c>
+      <c r="B20">
+        <v>36.693820000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3104.1666666666601</v>
+      </c>
+      <c r="B21">
+        <v>39.849730000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2904.1666666666601</v>
+      </c>
+      <c r="B22">
+        <v>46.55115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2727.7777777777701</v>
+      </c>
+      <c r="B23">
+        <v>51.172310000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2382</v>
+      </c>
+      <c r="B24">
+        <v>59.925530000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2132.63888888888</v>
+      </c>
+      <c r="B25">
+        <v>64.957470000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2075.6944444444398</v>
+      </c>
+      <c r="B26">
+        <v>65.966380000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1970.13888888888</v>
+      </c>
+      <c r="B27">
+        <v>67.836060000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1903.5647999999901</v>
+      </c>
+      <c r="B28">
+        <v>68.879940000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1853.4722222222199</v>
+      </c>
+      <c r="B29">
+        <v>69.662019999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1822.9166666666599</v>
+      </c>
+      <c r="B30">
+        <v>70.115110000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1779.9421874777499</v>
+      </c>
+      <c r="B31">
+        <v>70.63852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1788</v>
+      </c>
+      <c r="B32">
+        <v>70.678640000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1767.3611111111099</v>
+      </c>
+      <c r="B33">
+        <v>70.939850000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1222.3368417092499</v>
+      </c>
+      <c r="B34">
+        <v>77.389849999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1041.04643372541</v>
+      </c>
+      <c r="B35">
+        <v>78.888120000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>969.62900027723094</v>
+      </c>
+      <c r="B36">
+        <v>79.583939999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>799.32588974695295</v>
+      </c>
+      <c r="B37">
+        <v>80.907210000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>744.38940247912103</v>
+      </c>
+      <c r="B38">
+        <v>81.188850000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>694.94656393807202</v>
+      </c>
+      <c r="B39">
+        <v>81.563149999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>497.17520977387801</v>
+      </c>
+      <c r="B40">
+        <v>82.776740000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>373.56811342125599</v>
+      </c>
+      <c r="B41">
+        <v>83.277889999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B42">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4951207-4B39-4477-9481-9EA81C390D83}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>308.966399999999</v>
+      </c>
+      <c r="B2">
+        <v>1903.5647999999901</v>
+      </c>
+      <c r="C2">
+        <v>68.879940000000005</v>
+      </c>
+      <c r="D2">
+        <v>-166.22076000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>588</v>
+      </c>
+      <c r="B3">
+        <v>1788</v>
+      </c>
+      <c r="C3">
+        <v>70.678640000000001</v>
+      </c>
+      <c r="D3">
+        <v>-154.02171999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3105.6</v>
+      </c>
+      <c r="B4">
+        <v>2382</v>
+      </c>
+      <c r="C4">
+        <v>59.925530000000002</v>
+      </c>
+      <c r="D4">
+        <v>-43.523110000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1592.3611111111099</v>
+      </c>
+      <c r="B5">
+        <v>3559.7222222222199</v>
+      </c>
+      <c r="C5">
+        <v>22.954319999999999</v>
+      </c>
+      <c r="D5">
+        <v>-109.9945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1670.13888888888</v>
+      </c>
+      <c r="B6">
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="C6">
+        <v>21.570830000000001</v>
+      </c>
+      <c r="D6">
+        <v>-106.52785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2218.75</v>
+      </c>
+      <c r="B7">
+        <v>3559.7222222222199</v>
+      </c>
+      <c r="C7">
+        <v>23.065629999999999</v>
+      </c>
+      <c r="D7">
+        <v>-82.281869999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2205.5555555555502</v>
+      </c>
+      <c r="B8">
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="C8">
+        <v>21.617159999999998</v>
+      </c>
+      <c r="D8">
+        <v>-83.171080000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2143.75</v>
+      </c>
+      <c r="B9">
+        <v>3817.3611111111099</v>
+      </c>
+      <c r="C9">
+        <v>12.087949999999999</v>
+      </c>
+      <c r="D9">
+        <v>-85.774829999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2276.38888888888</v>
+      </c>
+      <c r="B10">
+        <v>3924.3055555555502</v>
+      </c>
+      <c r="C10">
+        <v>7.5207199999999998</v>
+      </c>
+      <c r="D10">
+        <v>-79.930099999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2465.9722222222199</v>
+      </c>
+      <c r="B11">
+        <v>3855.5555555555502</v>
+      </c>
+      <c r="C11">
+        <v>10.478579999999999</v>
+      </c>
+      <c r="D11">
+        <v>-71.559690000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2397.2222222222199</v>
+      </c>
+      <c r="B12">
+        <v>5198.6111111111104</v>
+      </c>
+      <c r="C12">
+        <v>-43.591650000000001</v>
+      </c>
+      <c r="D12">
+        <v>-74.632289999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2540.2777777777701</v>
+      </c>
+      <c r="B13">
+        <v>5497.9166666666597</v>
+      </c>
+      <c r="C13">
+        <v>-52.330469999999998</v>
+      </c>
+      <c r="D13">
+        <v>-68.337260000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2640.9722222222199</v>
+      </c>
+      <c r="B14">
+        <v>5590.2777777777701</v>
+      </c>
+      <c r="C14">
+        <v>-54.782330000000002</v>
+      </c>
+      <c r="D14">
+        <v>-63.844299999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2822.2222222222199</v>
+      </c>
+      <c r="B15">
+        <v>5984.7222222222199</v>
+      </c>
+      <c r="C15">
+        <v>-63.575870000000002</v>
+      </c>
+      <c r="D15">
+        <v>-55.934139999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3081.25</v>
+      </c>
+      <c r="B16">
+        <v>5845.1388888888796</v>
+      </c>
+      <c r="C16">
+        <v>-60.723790000000001</v>
+      </c>
+      <c r="D16">
+        <v>-44.472540000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>8065.9722222222199</v>
+      </c>
+      <c r="B17">
+        <v>5124.3055555555502</v>
+      </c>
+      <c r="C17">
+        <v>-41.288359999999997</v>
+      </c>
+      <c r="D17">
+        <v>174.56916000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>7425</v>
+      </c>
+      <c r="B18">
+        <v>5195.1388888888796</v>
+      </c>
+      <c r="C18">
+        <v>-43.494999999999997</v>
+      </c>
+      <c r="D18">
+        <v>146.35626999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>7228.4722222222199</v>
+      </c>
+      <c r="B19">
+        <v>4284.7222222222199</v>
+      </c>
+      <c r="C19">
+        <v>-8.2906300000000002</v>
+      </c>
+      <c r="D19">
+        <v>138.09456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>7361.1111111111104</v>
+      </c>
+      <c r="B20">
+        <v>2904.1666666666601</v>
+      </c>
+      <c r="C20">
+        <v>46.55115</v>
+      </c>
+      <c r="D20">
+        <v>143.39149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>7656.9444444444398</v>
+      </c>
+      <c r="B21">
+        <v>2727.7777777777701</v>
+      </c>
+      <c r="C21">
+        <v>51.172310000000003</v>
+      </c>
+      <c r="D21">
+        <v>156.66297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2050.6944444444398</v>
+      </c>
+      <c r="B22">
+        <v>2075.6944444444398</v>
+      </c>
+      <c r="C22">
+        <v>65.966380000000001</v>
+      </c>
+      <c r="D22">
+        <v>-89.744709999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3590.2777777777701</v>
+      </c>
+      <c r="B23">
+        <v>1822.9166666666599</v>
+      </c>
+      <c r="C23">
+        <v>70.115110000000001</v>
+      </c>
+      <c r="D23">
+        <v>-22.094999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>4386.1111111111104</v>
+      </c>
+      <c r="B24">
+        <v>1970.13888888888</v>
+      </c>
+      <c r="C24">
+        <v>67.836060000000003</v>
+      </c>
+      <c r="D24">
+        <v>12.86124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>4702.0833333333303</v>
+      </c>
+      <c r="B25">
+        <v>1767.3611111111099</v>
+      </c>
+      <c r="C25">
+        <v>70.939850000000007</v>
+      </c>
+      <c r="D25">
+        <v>26.660070000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>4645.1388888888796</v>
+      </c>
+      <c r="B26">
+        <v>1853.4722222222199</v>
+      </c>
+      <c r="C26">
+        <v>69.662019999999998</v>
+      </c>
+      <c r="D26">
+        <v>24.217960000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4659.7222222222199</v>
+      </c>
+      <c r="B27">
+        <v>2132.63888888888</v>
+      </c>
+      <c r="C27">
+        <v>64.957470000000001</v>
+      </c>
+      <c r="D27">
+        <v>24.833200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4513.1944444444398</v>
+      </c>
+      <c r="B28">
+        <v>3104.1666666666601</v>
+      </c>
+      <c r="C28">
+        <v>39.849730000000001</v>
+      </c>
+      <c r="D28">
+        <v>18.38167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4439.5833333333303</v>
+      </c>
+      <c r="B29">
+        <v>3193.0555555555502</v>
+      </c>
+      <c r="C29">
+        <v>36.693820000000002</v>
+      </c>
+      <c r="D29">
+        <v>15.129720000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>4897.9166666666597</v>
+      </c>
+      <c r="B30">
+        <v>4430.5555555555502</v>
+      </c>
+      <c r="C30">
+        <v>-14.60797</v>
+      </c>
+      <c r="D30">
+        <v>35.299059999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>4515.2777777777701</v>
+      </c>
+      <c r="B31">
+        <v>4926.3888888888796</v>
+      </c>
+      <c r="C31">
+        <v>-34.288670000000003</v>
+      </c>
+      <c r="D31">
+        <v>18.468319999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>5400.2566984278601</v>
+      </c>
+      <c r="B32">
+        <v>1779.9421874777499</v>
+      </c>
+      <c r="C32">
+        <v>70.63852</v>
+      </c>
+      <c r="D32">
+        <v>57.464689999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>6477.0118488773696</v>
+      </c>
+      <c r="B33">
+        <v>3886.7564741991</v>
+      </c>
+      <c r="C33">
+        <v>8.5713200000000001</v>
+      </c>
+      <c r="D33">
+        <v>104.83774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>6971.4402342878502</v>
+      </c>
+      <c r="B34">
+        <v>3285.2019386163402</v>
+      </c>
+      <c r="C34">
+        <v>33.34986</v>
+      </c>
+      <c r="D34">
+        <v>126.7225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2939.102068829</v>
+      </c>
+      <c r="B35">
+        <v>497.17520977387801</v>
+      </c>
+      <c r="C35">
+        <v>82.776740000000004</v>
+      </c>
+      <c r="D35">
+        <v>-50.527790000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>3524.1756582314101</v>
+      </c>
+      <c r="B36">
+        <v>373.56811342125599</v>
+      </c>
+      <c r="C36">
+        <v>83.277889999999999</v>
+      </c>
+      <c r="D36">
+        <v>-26.278639999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2472.1419270524302</v>
+      </c>
+      <c r="B37">
+        <v>1222.3368417092499</v>
+      </c>
+      <c r="C37">
+        <v>77.389849999999996</v>
+      </c>
+      <c r="D37">
+        <v>-71.190749999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>6155.63339836055</v>
+      </c>
+      <c r="B38">
+        <v>744.38940247912103</v>
+      </c>
+      <c r="C38">
+        <v>81.188850000000002</v>
+      </c>
+      <c r="D38">
+        <v>90.770780000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>6433.0626590631</v>
+      </c>
+      <c r="B39">
+        <v>1041.04643372541</v>
+      </c>
+      <c r="C39">
+        <v>78.888120000000001</v>
+      </c>
+      <c r="D39">
+        <v>102.81180000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>5900.1787325651303</v>
+      </c>
+      <c r="B40">
+        <v>799.32588974695295</v>
+      </c>
+      <c r="C40">
+        <v>80.907210000000006</v>
+      </c>
+      <c r="D40">
+        <v>79.857330000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>5837.0017722071298</v>
+      </c>
+      <c r="B41">
+        <v>969.62900027723094</v>
+      </c>
+      <c r="C41">
+        <v>79.583939999999998</v>
+      </c>
+      <c r="D41">
+        <v>76.869050000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>5501.8891998733498</v>
+      </c>
+      <c r="B42">
+        <v>694.94656393807202</v>
+      </c>
+      <c r="C42">
+        <v>81.563149999999993</v>
+      </c>
+      <c r="D42">
+        <v>62.103430000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E379855-03B2-48D1-9D03-0446BA810EF6}">
+  <dimension ref="A1:G182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.23046875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>4096.0000000030996</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>-23.733374755718401</v>
+      </c>
+      <c r="C2">
+        <v>-90</v>
+      </c>
+      <c r="D2" s="4">
+        <f>a+b*C2+cc*C2^2+d*C2^3+e*C2^4+f*C2^5+g*C2^6+h*C2^7+i*C2^8+j*C2^9</f>
+        <v>9637.7832617302247</v>
+      </c>
+      <c r="E2">
+        <f>C2*PI()/180</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="F2">
+        <f>N(TAN((PI()/4)+(E2/2)))</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>(mapHeight/2)-(mapWidth*F2/(2*PI()))</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-2.4727976469258798E-11</v>
+      </c>
+      <c r="C3">
+        <v>-89</v>
+      </c>
+      <c r="D3" s="4">
+        <f>a+b*C3+cc*C3^2+d*C3^3+e*C3^4+f*C3^5+g*C3^6+h*C3^7+i*C3^8+j*C3^9</f>
+        <v>9279.0294355106198</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3*PI()/180</f>
+        <v>-1.5533430342749535</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">N(TAN((PI()/4)+(E3/2)))</f>
+        <v>8.7268677907586904E-3</v>
+      </c>
+      <c r="G3">
+        <f>(mapHeight/2)-(mapWidth*F3/(2*PI()))</f>
+        <v>4084.6219333909817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>1.2258461995026801E-3</v>
+      </c>
+      <c r="C4">
+        <v>-88</v>
+      </c>
+      <c r="D4" s="4">
+        <f>a+b*C4+cc*C4^2+d*C4^3+e*C4^4+f*C4^5+g*C4^6+h*C4^7+i*C4^8+j*C4^9</f>
+        <v>8955.8100212052286</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.745506492821761E-2</v>
+      </c>
+      <c r="G4">
+        <f>(mapHeight/2)-(mapWidth*F4/(2*PI()))</f>
+        <v>4073.2421335833328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3.1700065464366898E-14</v>
+      </c>
+      <c r="C5">
+        <v>-87</v>
+      </c>
+      <c r="D5" s="4">
+        <f>a+b*C5+cc*C5^2+d*C5^3+e*C5^4+f*C5^5+g*C5^6+h*C5^7+i*C5^8+j*C5^9</f>
+        <v>8664.5847135695567</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-1.5184364492350666</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.6185921569186966E-2</v>
+      </c>
+      <c r="G5">
+        <f>(mapHeight/2)-(mapWidth*F5/(2*PI()))</f>
+        <v>4061.8588663222044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>-1.62837974806272E-6</v>
+      </c>
+      <c r="C6">
+        <v>-86</v>
+      </c>
+      <c r="D6" s="4">
+        <f>a+b*C6+cc*C6^2+d*C6^3+e*C6^4+f*C6^5+g*C6^6+h*C6^7+i*C6^8+j*C6^9</f>
+        <v>8402.1129731615201</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-1.5009831567151233</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.4920769491747779E-2</v>
+      </c>
+      <c r="G6">
+        <f>(mapHeight/2)-(mapWidth*F6/(2*PI()))</f>
+        <v>4050.4703952389382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>-1.41058873095289E-17</v>
+      </c>
+      <c r="C7">
+        <v>-85</v>
+      </c>
+      <c r="D7" s="4">
+        <f>a+b*C7+cc*C7^2+d*C7^3+e*C7^4+f*C7^5+g*C7^6+h*C7^7+i*C7^8+j*C7^9</f>
+        <v>8165.43365637641</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-1.4835298641951802</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.366094290851201E-2</v>
+      </c>
+      <c r="G7">
+        <f>(mapHeight/2)-(mapWidth*F7/(2*PI()))</f>
+        <v>4039.0749807907414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>3.5868973175747199E-10</v>
+      </c>
+      <c r="C8">
+        <v>-84</v>
+      </c>
+      <c r="D8" s="4">
+        <f>a+b*C8+cc*C8^2+d*C8^3+e*C8^4+f*C8^5+g*C8^6+h*C8^7+i*C8^8+j*C8^9</f>
+        <v>7951.845705581698</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-1.4660765716752369</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.2407779283041162E-2</v>
+      </c>
+      <c r="G8">
+        <f>(mapHeight/2)-(mapWidth*F8/(2*PI()))</f>
+        <v>4027.6708791962419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>2.4989110519225199E-21</v>
+      </c>
+      <c r="C9">
+        <v>-83</v>
+      </c>
+      <c r="D9" s="4">
+        <f>a+b*C9+cc*C9^2+d*C9^3+e*C9^4+f*C9^5+g*C9^6+h*C9^7+i*C9^8+j*C9^9</f>
+        <v>7758.8898596669451</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-1.4486232791552935</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.1162620150484279E-2</v>
+      </c>
+      <c r="G9">
+        <f>(mapHeight/2)-(mapWidth*F9/(2*PI()))</f>
+        <v>4016.2563413655425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>-3.0561162473307699E-14</v>
+      </c>
+      <c r="C10">
+        <v>-82</v>
+      </c>
+      <c r="D10" s="4">
+        <f>a+b*C10+cc*C10^2+d*C10^3+e*C10^4+f*C10^5+g*C10^6+h*C10^7+i*C10^8+j*C10^9</f>
+        <v>7584.3313462779415</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-1.43116998663535</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6.9926811943510511E-2</v>
+      </c>
+      <c r="G10">
+        <f>(mapHeight/2)-(mapWidth*F10/(2*PI()))</f>
+        <v>4004.8296118233739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>-81</v>
+      </c>
+      <c r="D11" s="4">
+        <f>a+b*C11+cc*C11^2+d*C11^3+e*C11^4+f*C11^5+g*C11^6+h*C11^7+i*C11^8+j*C11^9</f>
+        <v>7426.1435179468826</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1.4137166941154069</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7.8701706824618439E-2</v>
+      </c>
+      <c r="G11">
+        <f>(mapHeight/2)-(mapWidth*F11/(2*PI()))</f>
+        <v>3993.3889276239283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>-80</v>
+      </c>
+      <c r="D12" s="4">
+        <f>a+b*C12+cc*C12^2+d*C12^3+e*C12^4+f*C12^5+g*C12^6+h*C12^7+i*C12^8+j*C12^9</f>
+        <v>7282.4923952617573</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-1.3962634015954636</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8.7488663525924021E-2</v>
+      </c>
+      <c r="G12">
+        <f>(mapHeight/2)-(mapWidth*F12/(2*PI()))</f>
+        <v>3981.9325172559511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>-79</v>
+      </c>
+      <c r="D13" s="4">
+        <f>a+b*C13+cc*C13^2+d*C13^3+e*C13^4+f*C13^5+g*C13^6+h*C13^7+i*C13^8+j*C13^9</f>
+        <v>7151.7220811389543</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1.3788101090755203</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>9.628904819753864E-2</v>
+      </c>
+      <c r="G13">
+        <f>(mapHeight/2)-(mapWidth*F13/(2*PI()))</f>
+        <v>3970.4585995366233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>-78</v>
+      </c>
+      <c r="D14" s="4">
+        <f>a+b*C14+cc*C14^2+d*C14^3+e*C14^4+f*C14^5+g*C14^6+h*C14^7+i*C14^8+j*C14^9</f>
+        <v>7032.341011171985</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-1.3613568165555769</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.1051042352656765</v>
+      </c>
+      <c r="G14">
+        <f>(mapHeight/2)-(mapWidth*F14/(2*PI()))</f>
+        <v>3958.9653824927668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C15">
+        <v>-77</v>
+      </c>
+      <c r="D15" s="4">
+        <f>a+b*C15+cc*C15^2+d*C15^3+e*C15^4+f*C15^5+g*C15^6+h*C15^7+i*C15^8+j*C15^9</f>
+        <v>6923.0090059280437</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-1.3439035240356338</v>
+      </c>
+      <c r="F15">
+        <f>N(TAN((PI()/4)+(E15/2)))</f>
+        <v>0.11393560830164542</v>
+      </c>
+      <c r="G15">
+        <f>(mapHeight/2)-(mapWidth*F15/(2*PI()))</f>
+        <v>3947.4510622278544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C16">
+        <v>-76</v>
+      </c>
+      <c r="D16" s="4">
+        <f>a+b*C16+cc*C16^2+d*C16^3+e*C16^4+f*C16^5+g*C16^6+h*C16^7+i*C16^8+j*C16^9</f>
+        <v>6822.5250919509144</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-1.3264502315156903</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.12278456090290465</v>
+      </c>
+      <c r="G16">
+        <f>(mapHeight/2)-(mapWidth*F16/(2*PI()))</f>
+        <v>3935.9138217732902</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>-75</v>
+      </c>
+      <c r="D17" s="4">
+        <f>a+b*C17+cc*C17^2+d*C17^3+e*C17^4+f*C17^5+g*C17^6+h*C17^7+i*C17^8+j*C17^9</f>
+        <v>6729.8160591050209</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-1.3089969389957472</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.13165249758739581</v>
+      </c>
+      <c r="G17">
+        <f>(mapHeight/2)-(mapWidth*F17/(2*PI()))</f>
+        <v>3924.3518299223829</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>-74</v>
+      </c>
+      <c r="D18" s="4">
+        <f>a+b*C18+cc*C18^2+d*C18^3+e*C18^4+f*C18^5+g*C18^6+h*C18^7+i*C18^8+j*C18^9</f>
+        <v>6643.9257227605085</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-1.2915436464758039</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.14054083470239143</v>
+      </c>
+      <c r="G18">
+        <f>(mapHeight/2)-(mapWidth*F18/(2*PI()))</f>
+        <v>3912.7632400453913</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>-73</v>
+      </c>
+      <c r="D19" s="4">
+        <f>a+b*C19+cc*C19^2+d*C19^3+e*C19^4+f*C19^5+g*C19^6+h*C19^7+i*C19^8+j*C19^9</f>
+        <v>6564.0048601729495</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-1.2740903539558606</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.14945100134912778</v>
+      </c>
+      <c r="G19">
+        <f>(mapHeight/2)-(mapWidth*F19/(2*PI()))</f>
+        <v>3901.1461888839908</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>-72</v>
+      </c>
+      <c r="D20" s="4">
+        <f>a+b*C20+cc*C20^2+d*C20^3+e*C20^4+f*C20^5+g*C20^6+h*C20^7+i*C20^8+j*C20^9</f>
+        <v>6489.3017912544201</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-1.2566370614359172</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.15838444032453627</v>
+      </c>
+      <c r="G20">
+        <f>(mapHeight/2)-(mapWidth*F20/(2*PI()))</f>
+        <v>3889.4987953234472</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>-71</v>
+      </c>
+      <c r="D21" s="4">
+        <f>a+b*C21+cc*C21^2+d*C21^3+e*C21^4+f*C21^5+g*C21^6+h*C21^7+i*C21^8+j*C21^9</f>
+        <v>6419.153574764101</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-1.2391837689159739</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.16734260908141957</v>
+      </c>
+      <c r="G21">
+        <f>(mapHeight/2)-(mapWidth*F21/(2*PI()))</f>
+        <v>3877.8191591407403</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>-70</v>
+      </c>
+      <c r="D22" s="4">
+        <f>a+b*C22+cc*C22^2+d*C22^3+e*C22^4+f*C22^5+g*C22^6+h*C22^7+i*C22^8+j*C22^9</f>
+        <v>6352.977791767531</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-1.2217304763960306</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.176326980708465</v>
+      </c>
+      <c r="G22">
+        <f>(mapHeight/2)-(mapWidth*F22/(2*PI()))</f>
+        <v>3866.1053597268256</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>-69</v>
+      </c>
+      <c r="D23" s="4">
+        <f>a+b*C23+cc*C23^2+d*C23^3+e*C23^4+f*C23^5+g*C23^6+h*C23^7+i*C23^8+j*C23^9</f>
+        <v>6290.2648890230266</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-1.2042771838760873</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.18533904493153441</v>
+      </c>
+      <c r="G23">
+        <f>(mapHeight/2)-(mapWidth*F23/(2*PI()))</f>
+        <v>3854.3554547811568</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>-68</v>
+      </c>
+      <c r="D24" s="4">
+        <f>a+b*C24+cc*C24^2+d*C24^3+e*C24^4+f*C24^5+g*C24^6+h*C24^7+i*C24^8+j*C24^9</f>
+        <v>6230.5710557522771</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-1.1868238913561442</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.19438030913771842</v>
+      </c>
+      <c r="G24">
+        <f>(mapHeight/2)-(mapWidth*F24/(2*PI()))</f>
+        <v>3842.5674789765235</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>-67</v>
+      </c>
+      <c r="D25" s="4">
+        <f>a+b*C25+cc*C25^2+d*C25^3+e*C25^4+f*C25^5+g*C25^6+h*C25^7+i*C25^8+j*C25^9</f>
+        <v>6173.5116080396383</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-1.1693705988362006</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.20345229942369941</v>
+      </c>
+      <c r="G25">
+        <f>(mapHeight/2)-(mapWidth*F25/(2*PI()))</f>
+        <v>3830.7394425922016</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>-66</v>
+      </c>
+      <c r="D26" s="4">
+        <f>a+b*C26+cc*C26^2+d*C26^3+e*C26^4+f*C26^5+g*C26^6+h*C26^7+i*C26^8+j*C26^9</f>
+        <v>6118.7548558807766</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-1.1519173063162575</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.21255656167002207</v>
+      </c>
+      <c r="G26">
+        <f>(mapHeight/2)-(mapWidth*F26/(2*PI()))</f>
+        <v>3818.8693301133208</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>-65</v>
+      </c>
+      <c r="D27" s="4">
+        <f>a+b*C27+cc*C27^2+d*C27^3+e*C27^4+f*C27^5+g*C27^6+h*C27^7+i*C27^8+j*C27^9</f>
+        <v>6066.0164286666977</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-1.1344640137963142</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.22169466264293985</v>
+      </c>
+      <c r="G27">
+        <f>(mapHeight/2)-(mapWidth*F27/(2*PI()))</f>
+        <v>3806.9550987942785</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>-64</v>
+      </c>
+      <c r="D28" s="4">
+        <f>a+b*C28+cc*C28^2+d*C28^3+e*C28^4+f*C28^5+g*C28^6+h*C28^7+i*C28^8+j*C28^9</f>
+        <v>6015.0540356431693</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-1.1170107212763709</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.23086819112556309</v>
+      </c>
+      <c r="G28">
+        <f>(mapHeight/2)-(mapWidth*F28/(2*PI()))</f>
+        <v>3794.9946771839564</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <v>-63</v>
+      </c>
+      <c r="D29" s="4">
+        <f>a+b*C29+cc*C29^2+d*C29^3+e*C29^4+f*C29^5+g*C29^6+h*C29^7+i*C29^8+j*C29^9</f>
+        <v>5965.6626386287035</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-1.0995574287564276</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.24007875908011603</v>
+      </c>
+      <c r="G29">
+        <f>(mapHeight/2)-(mapWidth*F29/(2*PI()))</f>
+        <v>3782.9859636103683</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <v>-62</v>
+      </c>
+      <c r="D30" s="4">
+        <f>a+b*C30+cc*C30^2+d*C30^3+e*C30^4+f*C30^5+g*C30^6+h*C30^7+i*C30^8+j*C30^9</f>
+        <v>5917.6700150061088</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-1.0821041362364843</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.24932800284318068</v>
+      </c>
+      <c r="G30">
+        <f>(mapHeight/2)-(mapWidth*F30/(2*PI()))</f>
+        <v>3770.9268246223064</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>-61</v>
+      </c>
+      <c r="D31" s="4">
+        <f>a+b*C31+cc*C31^2+d*C31^3+e*C31^4+f*C31^5+g*C31^6+h*C31^7+i*C31^8+j*C31^9</f>
+        <v>5870.9326897235214</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-1.064650843716541</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.25861758435589027</v>
+      </c>
+      <c r="G31">
+        <f>(mapHeight/2)-(mapWidth*F31/(2*PI()))</f>
+        <v>3758.8150933854195</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <v>-60</v>
+      </c>
+      <c r="D32" s="4">
+        <f>a+b*C32+cc*C32^2+d*C32^3+e*C32^4+f*C32^5+g*C32^6+h*C32^7+i*C32^8+j*C32^9</f>
+        <v>5825.3322157506109</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-1.0471975511965976</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.26794919243112275</v>
+      </c>
+      <c r="G32">
+        <f>(mapHeight/2)-(mapWidth*F32/(2*PI()))</f>
+        <v>3746.648568030047</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <v>-59</v>
+      </c>
+      <c r="D33" s="4">
+        <f>a+b*C33+cc*C33^2+d*C33^3+e*C33^4+f*C33^5+g*C33^6+h*C33^7+i*C33^8+j*C33^9</f>
+        <v>5780.7717831342634</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-1.0297442586766543</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.27732454405983853</v>
+      </c>
+      <c r="G33">
+        <f>(mapHeight/2)-(mapWidth*F33/(2*PI()))</f>
+        <v>3734.4250099480214</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <v>-58</v>
+      </c>
+      <c r="D34" s="4">
+        <f>a+b*C34+cc*C34^2+d*C34^3+e*C34^4+f*C34^5+g*C34^6+h*C34^7+i*C34^8+j*C34^9</f>
+        <v>5737.1731374856763</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-1.0122909661567112</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.28674538575880787</v>
+      </c>
+      <c r="G34">
+        <f>(mapHeight/2)-(mapWidth*F34/(2*PI()))</f>
+        <v>3722.1421420355041</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <v>-57</v>
+      </c>
+      <c r="D35" s="4">
+        <f>a+b*C35+cc*C35^2+d*C35^3+e*C35^4+f*C35^5+g*C35^6+h*C35^7+i*C35^8+j*C35^9</f>
+        <v>5694.4737894072759</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-0.99483767363676778</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.29621349496208027</v>
+      </c>
+      <c r="G35">
+        <f>(mapHeight/2)-(mapWidth*F35/(2*PI()))</f>
+        <v>3709.7976468787911</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <v>-56</v>
+      </c>
+      <c r="D36" s="4">
+        <f>a+b*C36+cc*C36^2+d*C36^3+e*C36^4+f*C36^5+g*C36^6+h*C36^7+i*C36^8+j*C36^9</f>
+        <v>5652.6244970332791</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-0.97738438111682457</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.30573068145866034</v>
+      </c>
+      <c r="G36">
+        <f>(mapHeight/2)-(mapWidth*F36/(2*PI()))</f>
+        <v>3697.3891648798763</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C37">
+        <v>-55</v>
+      </c>
+      <c r="D37" s="4">
+        <f>a+b*C37+cc*C37^2+d*C37^3+e*C37^4+f*C37^5+g*C37^6+h*C37^7+i*C37^8+j*C37^9</f>
+        <v>5611.5870045120091</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-0.95993108859688125</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.31529878887898349</v>
+      </c>
+      <c r="G37">
+        <f>(mapHeight/2)-(mapWidth*F37/(2*PI()))</f>
+        <v>3684.9142923183872</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C38">
+        <v>-54</v>
+      </c>
+      <c r="D38" s="4">
+        <f>a+b*C38+cc*C38^2+d*C38^3+e*C38^4+f*C38^5+g*C38^6+h*C38^7+i*C38^8+j*C38^9</f>
+        <v>5571.3320199013251</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-0.94247779607693793</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.32491969623290629</v>
+      </c>
+      <c r="G38">
+        <f>(mapHeight/2)-(mapWidth*F38/(2*PI()))</f>
+        <v>3672.3705793463573</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C39">
+        <v>-53</v>
+      </c>
+      <c r="D39" s="4">
+        <f>a+b*C39+cc*C39^2+d*C39^3+e*C39^4+f*C39^5+g*C39^6+h*C39^7+i*C39^8+j*C39^9</f>
+        <v>5531.8374165806435</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-0.92502450355699462</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.33459531950207316</v>
+      </c>
+      <c r="G39">
+        <f>(mapHeight/2)-(mapWidth*F39/(2*PI()))</f>
+        <v>3659.7555279121038</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C40">
+        <v>-52</v>
+      </c>
+      <c r="D40" s="4">
+        <f>a+b*C40+cc*C40^2+d*C40^3+e*C40^4+f*C40^5+g*C40^6+h*C40^7+i*C40^8+j*C40^9</f>
+        <v>5493.0866429040771</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-0.90757121103705141</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.34432761328966521</v>
+      </c>
+      <c r="G40">
+        <f>(mapHeight/2)-(mapWidth*F40/(2*PI()))</f>
+        <v>3647.0665896092892</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C41">
+        <v>-51</v>
+      </c>
+      <c r="D41" s="4">
+        <f>a+b*C41+cc*C41^2+d*C41^3+e*C41^4+f*C41^5+g*C41^6+h*C41^7+i*C41^8+j*C41^9</f>
+        <v>5455.0673254291505</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-0.89011791851710798</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.35411857253069806</v>
+      </c>
+      <c r="G41">
+        <f>(mapHeight/2)-(mapWidth*F41/(2*PI()))</f>
+        <v>3634.3011634470381</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C42">
+        <v>-50</v>
+      </c>
+      <c r="D42" s="4">
+        <f>a+b*C42+cc*C42^2+d*C42^3+e*C42^4+f*C42^5+g*C42^6+h*C42^7+i*C42^8+j*C42^9</f>
+        <v>5417.7700516544528</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-0.87266462599716477</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0.36397023426620234</v>
+      </c>
+      <c r="G42">
+        <f>(mapHeight/2)-(mapWidth*F42/(2*PI()))</f>
+        <v>3621.4565935367682</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C43">
+        <v>-49</v>
+      </c>
+      <c r="D43" s="4">
+        <f>a+b*C43+cc*C43^2+d*C43^3+e*C43^4+f*C43^5+g*C43^6+h*C43^7+i*C43^8+j*C43^9</f>
+        <v>5381.187318787307</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-0.85521133347722145</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0.37388467948480469</v>
+      </c>
+      <c r="G43">
+        <f>(mapHeight/2)-(mapWidth*F43/(2*PI()))</f>
+        <v>3608.5301666911387</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C44">
+        <v>-48</v>
+      </c>
+      <c r="D44" s="4">
+        <f>a+b*C44+cc*C44^2+d*C44^3+e*C44^4+f*C44^5+g*C44^6+h*C44^7+i*C44^8+j*C44^9</f>
+        <v>5345.3126356392722</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-0.83775804095727813</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.38386403503541577</v>
+      </c>
+      <c r="G44">
+        <f>(mapHeight/2)-(mapWidth*F44/(2*PI()))</f>
+        <v>3595.5191099302961</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C45">
+        <v>-47</v>
+      </c>
+      <c r="D45" s="4">
+        <f>a+b*C45+cc*C45^2+d*C45^3+e*C45^4+f*C45^5+g*C45^6+h*C45^7+i*C45^8+j*C45^9</f>
+        <v>5310.1397653128297</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-0.82030474843733492</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.39391047561494236</v>
+      </c>
+      <c r="G45">
+        <f>(mapHeight/2)-(mapWidth*F45/(2*PI()))</f>
+        <v>3582.4205878902981</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C46">
+        <v>-46</v>
+      </c>
+      <c r="D46" s="4">
+        <f>a+b*C46+cc*C46^2+d*C46^3+e*C46^4+f*C46^5+g*C46^6+h*C46^7+i*C46^8+j*C46^9</f>
+        <v>5275.6620968971847</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-0.80285145591739149</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.40402622583515685</v>
+      </c>
+      <c r="G46">
+        <f>(mapHeight/2)-(mapWidth*F46/(2*PI()))</f>
+        <v>3569.2317001283368</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C47">
+        <v>-45</v>
+      </c>
+      <c r="D47" s="4">
+        <f>a+b*C47+cc*C47^2+d*C47^3+e*C47^4+f*C47^5+g*C47^6+h*C47^7+i*C47^8+j*C47^9</f>
+        <v>5241.8721349344059</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0.41421356237309503</v>
+      </c>
+      <c r="G47">
+        <f>(mapHeight/2)-(mapWidth*F47/(2*PI()))</f>
+        <v>3555.9494783190535</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C48">
+        <v>-44</v>
+      </c>
+      <c r="D48" s="4">
+        <f>a+b*C48+cc*C48^2+d*C48^3+e*C48^4+f*C48^5+g*C48^6+h*C48^7+i*C48^8+j*C48^9</f>
+        <v>5208.7610959495951</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-0.76794487087750496</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.42447481620960476</v>
+      </c>
+      <c r="G48">
+        <f>(mapHeight/2)-(mapWidth*F48/(2*PI()))</f>
+        <v>3542.5708833359267</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C49">
+        <v>-43</v>
+      </c>
+      <c r="D49" s="4">
+        <f>a+b*C49+cc*C49^2+d*C49^3+e*C49^4+f*C49^5+g*C49^6+h*C49^7+i*C49^8+j*C49^9</f>
+        <v>5176.3186018598844</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-0.75049157835756164</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.43481237496093361</v>
+      </c>
+      <c r="G49">
+        <f>(mapHeight/2)-(mapWidth*F49/(2*PI()))</f>
+        <v>3529.0928022113549</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C50">
+        <v>-42</v>
+      </c>
+      <c r="D50" s="4">
+        <f>a+b*C50+cc*C50^2+d*C50^3+e*C50^4+f*C50^5+g*C50^6+h*C50^7+i*C50^8+j*C50^9</f>
+        <v>5144.5324605872702</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-0.73303828583761843</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.4452286853085361</v>
+      </c>
+      <c r="G50">
+        <f>(mapHeight/2)-(mapWidth*F50/(2*PI()))</f>
+        <v>3515.5120449686779</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C51">
+        <v>-41</v>
+      </c>
+      <c r="D51" s="4">
+        <f>a+b*C51+cc*C51^2+d*C51^3+e*C51^4+f*C51^5+g*C51^6+h*C51^7+i*C51^8+j*C51^9</f>
+        <v>5113.3885246993141</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-0.715584993317675</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.45572625553258472</v>
+      </c>
+      <c r="G51">
+        <f>(mapHeight/2)-(mapWidth*F51/(2*PI()))</f>
+        <v>3501.8253413189955</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C52">
+        <v>-40</v>
+      </c>
+      <c r="D52" s="4">
+        <f>a+b*C52+cc*C52^2+d*C52^3+e*C52^4+f*C52^5+g*C52^6+h*C52^7+i*C52^8+j*C52^9</f>
+        <v>5082.8706193897324</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.46630765815499858</v>
+      </c>
+      <c r="G52">
+        <f>(mapHeight/2)-(mapWidth*F52/(2*PI()))</f>
+        <v>3488.0293372151909</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C53">
+        <v>-39</v>
+      </c>
+      <c r="D53" s="4">
+        <f>a+b*C53+cc*C53^2+d*C53^3+e*C53^4+f*C53^5+g*C53^6+h*C53^7+i*C53^8+j*C53^9</f>
+        <v>5052.9605315877252</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-0.68067840827778847</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.47697553269816018</v>
+      </c>
+      <c r="G53">
+        <f>(mapHeight/2)-(mapWidth*F53/(2*PI()))</f>
+        <v>3474.120591255125</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C54">
+        <v>-38</v>
+      </c>
+      <c r="D54" s="4">
+        <f>a+b*C54+cc*C54^2+d*C54^3+e*C54^4+f*C54^5+g*C54^6+h*C54^7+i*C54^8+j*C54^9</f>
+        <v>5023.6380524507222</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>-0.66322511575784515</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.48773258856586144</v>
+      </c>
+      <c r="G54">
+        <f>(mapHeight/2)-(mapWidth*F54/(2*PI()))</f>
+        <v>3460.0955709254658</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C55">
+        <v>-37</v>
+      </c>
+      <c r="D55" s="4">
+        <f>a+b*C55+cc*C55^2+d*C55^3+e*C55^4+f*C55^5+g*C55^6+h*C55^7+i*C55^8+j*C55^9</f>
+        <v>4994.8810659498695</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-0.64577182323790194</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.49858160805343149</v>
+      </c>
+      <c r="G55">
+        <f>(mapHeight/2)-(mapWidth*F55/(2*PI()))</f>
+        <v>3445.9506486770929</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C56">
+        <v>-36</v>
+      </c>
+      <c r="D56" s="4">
+        <f>a+b*C56+cc*C56^2+d*C56^3+e*C56^4+f*C56^5+g*C56^6+h*C56^7+i*C56^8+j*C56^9</f>
+        <v>4966.6656767012337</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-0.62831853071795862</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.50952544949442879</v>
+      </c>
+      <c r="G56">
+        <f>(mapHeight/2)-(mapWidth*F56/(2*PI()))</f>
+        <v>3431.6820978224478</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C57">
+        <v>-35</v>
+      </c>
+      <c r="D57" s="4">
+        <f>a+b*C57+cc*C57^2+d*C57^3+e*C57^4+f*C57^5+g*C57^6+h*C57^7+i*C57^8+j*C57^9</f>
+        <v>4938.9663706281544</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-0.6108652381980153</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.52056705055174624</v>
+      </c>
+      <c r="G57">
+        <f>(mapHeight/2)-(mapWidth*F57/(2*PI()))</f>
+        <v>3417.2860882446012</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C58">
+        <v>-34</v>
+      </c>
+      <c r="D58" s="4">
+        <f>a+b*C58+cc*C58^2+d*C58^3+e*C58^4+f*C58^5+g*C58^6+h*C58^7+i*C58^8+j*C58^9</f>
+        <v>4911.7562024616336</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>-0.59341194567807209</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.53170943166147866</v>
+      </c>
+      <c r="G58">
+        <f>(mapHeight/2)-(mapWidth*F58/(2*PI()))</f>
+        <v>3402.7586819071457</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C59">
+        <v>-33</v>
+      </c>
+      <c r="D59" s="4">
+        <f>a+b*C59+cc*C59^2+d*C59^3+e*C59^4+f*C59^5+g*C59^6+h*C59^7+i*C59^8+j*C59^9</f>
+        <v>4885.0070044960112</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-0.57595865315812877</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.54295569963843682</v>
+      </c>
+      <c r="G59">
+        <f>(mapHeight/2)-(mapWidth*F59/(2*PI()))</f>
+        <v>3388.095828153339</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C60">
+        <v>-32</v>
+      </c>
+      <c r="D60" s="4">
+        <f>a+b*C60+cc*C60^2+d*C60^3+e*C60^4+f*C60^5+g*C60^6+h*C60^7+i*C60^8+j*C60^9</f>
+        <v>4858.6896114163055</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-0.55850536063818546</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.55430905145276899</v>
+      </c>
+      <c r="G60">
+        <f>(mapHeight/2)-(mapWidth*F60/(2*PI()))</f>
+        <v>3373.2933587821535</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C61">
+        <v>-31</v>
+      </c>
+      <c r="D61" s="4">
+        <f>a+b*C61+cc*C61^2+d*C61^3+e*C61^4+f*C61^5+g*C61^6+h*C61^7+i*C61^8+j*C61^9</f>
+        <v>4832.774096401904</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-0.54105206811824214</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.56577277818776994</v>
+      </c>
+      <c r="G61">
+        <f>(mapHeight/2)-(mapWidth*F61/(2*PI()))</f>
+        <v>3358.3469828880952</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C62">
+        <v>-30</v>
+      </c>
+      <c r="D62" s="4">
+        <f>a+b*C62+cc*C62^2+d*C62^3+e*C62^4+f*C62^5+g*C62^6+h*C62^7+i*C62^8+j*C62^9</f>
+        <v>4807.230014088208</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="G62">
+        <f>(mapHeight/2)-(mapWidth*F62/(2*PI()))</f>
+        <v>3343.2522814507797</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C63">
+        <v>-29</v>
+      </c>
+      <c r="D63" s="4">
+        <f>a+b*C63+cc*C63^2+d*C63^3+e*C63^4+f*C63^5+g*C63^6+h*C63^7+i*C63^8+j*C63^9</f>
+        <v>4782.0266463339112</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-0.50614548307835561</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.58904501642055096</v>
+      </c>
+      <c r="G63">
+        <f>(mapHeight/2)-(mapWidth*F63/(2*PI()))</f>
+        <v>3328.0047016593217</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C64">
+        <v>-28</v>
+      </c>
+      <c r="D64" s="4">
+        <f>a+b*C64+cc*C64^2+d*C64^3+e*C64^4+f*C64^5+g*C64^6+h*C64^7+i*C64^8+j*C64^9</f>
+        <v>4757.1332470964016</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-0.48869219055841229</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.60086061902756038</v>
+      </c>
+      <c r="G64">
+        <f>(mapHeight/2)-(mapWidth*F64/(2*PI()))</f>
+        <v>3312.5995509555823</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C65">
+        <v>-27</v>
+      </c>
+      <c r="D65" s="4">
+        <f>a+b*C65+cc*C65^2+d*C65^3+e*C65^4+f*C65^5+g*C65^6+h*C65^7+i*C65^8+j*C65^9</f>
+        <v>4732.5192830616024</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>-0.47123889803846897</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.612800788139932</v>
+      </c>
+      <c r="G65">
+        <f>(mapHeight/2)-(mapWidth*F65/(2*PI()))</f>
+        <v>3297.0319907792527</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C66">
+        <v>-26</v>
+      </c>
+      <c r="D66" s="4">
+        <f>a+b*C66+cc*C66^2+d*C66^3+e*C66^4+f*C66^5+g*C66^6+h*C66^7+i*C66^8+j*C66^9</f>
+        <v>4708.1546670072985</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-0.4537856055185257</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.62486935190932746</v>
+      </c>
+      <c r="G66">
+        <f>(mapHeight/2)-(mapWidth*F66/(2*PI()))</f>
+        <v>3281.2970299965559</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C67">
+        <v>-25</v>
+      </c>
+      <c r="D67" s="4">
+        <f>a+b*C67+cc*C67^2+d*C67^3+e*C67^4+f*C67^5+g*C67^6+h*C67^7+i*C67^8+j*C67^9</f>
+        <v>4684.009981200481</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="2">C67*PI()/180</f>
+        <v>-0.43633231299858238</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="3">N(TAN((PI()/4)+(E67/2)))</f>
+        <v>0.63707026080749318</v>
+      </c>
+      <c r="G67">
+        <f>(mapHeight/2)-(mapWidth*F67/(2*PI()))</f>
+        <v>3265.3895179931196</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C68">
+        <v>-24</v>
+      </c>
+      <c r="D68" s="4">
+        <f>a+b*C68+cc*C68^2+d*C68^3+e*C68^4+f*C68^5+g*C68^6+h*C68^7+i*C68^8+j*C68^9</f>
+        <v>4660.0566884399796</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>-0.41887902047863906</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>0.64940759319751062</v>
+      </c>
+      <c r="G68">
+        <f>(mapHeight/2)-(mapWidth*F68/(2*PI()))</f>
+        <v>3249.3041374101954</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C69">
+        <v>-23</v>
+      </c>
+      <c r="D69" s="4">
+        <f>a+b*C69+cc*C69^2+d*C69^3+e*C69^4+f*C69^5+g*C69^6+h*C69^7+i*C69^8+j*C69^9</f>
+        <v>4636.267328654817</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>-0.40142572795869574</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>0.66188556119569153</v>
+      </c>
+      <c r="G69">
+        <f>(mapHeight/2)-(mapWidth*F69/(2*PI()))</f>
+        <v>3233.035396501934</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C70">
+        <v>-22</v>
+      </c>
+      <c r="D70" s="4">
+        <f>a+b*C70+cc*C70^2+d*C70^3+e*C70^4+f*C70^5+g*C70^6+h*C70^7+i*C70^8+j*C70^9</f>
+        <v>4612.6156992573242</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>-0.38397243543875248</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>0.67450851684242652</v>
+      </c>
+      <c r="G70">
+        <f>(mapHeight/2)-(mapWidth*F70/(2*PI()))</f>
+        <v>3216.5776210898525</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C71">
+        <v>-21</v>
+      </c>
+      <c r="D71" s="4">
+        <f>a+b*C71+cc*C71^2+d*C71^3+e*C71^4+f*C71^5+g*C71^6+h*C71^7+i*C71^8+j*C71^9</f>
+        <v>4589.0770177270897</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>-0.36651914291880922</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>0.68728095860161309</v>
+      </c>
+      <c r="G71">
+        <f>(mapHeight/2)-(mapWidth*F71/(2*PI()))</f>
+        <v>3199.9249460888941</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C72">
+        <v>-20</v>
+      </c>
+      <c r="D72" s="4">
+        <f>a+b*C72+cc*C72^2+d*C72^3+e*C72^4+f*C72^5+g*C72^6+h*C72^7+i*C72^8+j*C72^9</f>
+        <v>4565.6280651681254</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>-0.3490658503988659</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>0.70020753820970971</v>
+      </c>
+      <c r="G72">
+        <f>(mapHeight/2)-(mapWidth*F72/(2*PI()))</f>
+        <v>3183.071306577654</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C73">
+        <v>-19</v>
+      </c>
+      <c r="D73" s="4">
+        <f>a+b*C73+cc*C73^2+d*C73^3+e*C73^4+f*C73^5+g*C73^6+h*C73^7+i*C73^8+j*C73^9</f>
+        <v>4542.2473098366145</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>-0.33161255787892258</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>0.71329306789700531</v>
+      </c>
+      <c r="G73">
+        <f>(mapHeight/2)-(mapWidth*F73/(2*PI()))</f>
+        <v>3166.010428383303</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C74">
+        <v>-18</v>
+      </c>
+      <c r="D74" s="4">
+        <f>a+b*C74+cc*C74^2+d*C74^3+e*C74^4+f*C74^5+g*C74^6+h*C74^7+i*C74^8+j*C74^9</f>
+        <v>4518.9150098806285</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>-0.31415926535897931</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>0.7265425280053609</v>
+      </c>
+      <c r="G74">
+        <f>(mapHeight/2)-(mapWidth*F74/(2*PI()))</f>
+        <v>3148.7358181496011</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C75">
+        <v>-17</v>
+      </c>
+      <c r="D75" s="4">
+        <f>a+b*C75+cc*C75^2+d*C75^3+e*C75^4+f*C75^5+g*C75^6+h*C75^7+i*C75^8+j*C75^9</f>
+        <v>4495.6132947660926</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>-0.29670597283903605</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>0.73996107502848762</v>
+      </c>
+      <c r="G75">
+        <f>(mapHeight/2)-(mapWidth*F75/(2*PI()))</f>
+        <v>3131.2407528540025</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C76">
+        <v>-16</v>
+      </c>
+      <c r="D76" s="4">
+        <f>a+b*C76+cc*C76^2+d*C76^3+e*C76^4+f*C76^5+g*C76^6+h*C76^7+i*C76^8+j*C76^9</f>
+        <v>4472.326225085043</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>-0.27925268031909273</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>0.75355405010279419</v>
+      </c>
+      <c r="G76">
+        <f>(mapHeight/2)-(mapWidth*F76/(2*PI()))</f>
+        <v>3113.5182687373108</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C77">
+        <v>-15</v>
+      </c>
+      <c r="D77" s="4">
+        <f>a+b*C77+cc*C77^2+d*C77^3+e*C77^4+f*C77^5+g*C77^6+h*C77^7+i*C77^8+j*C77^9</f>
+        <v>4449.0398306529914</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>-0.26179938779914941</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>0.76732698797896037</v>
+      </c>
+      <c r="G77">
+        <f>(mapHeight/2)-(mapWidth*F77/(2*PI()))</f>
+        <v>3095.5611496065685</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C78">
+        <v>-14</v>
+      </c>
+      <c r="D78" s="4">
+        <f>a+b*C78+cc*C78^2+d*C78^3+e*C78^4+f*C78^5+g*C78^6+h*C78^7+i*C78^8+j*C78^9</f>
+        <v>4425.7421270017467</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>-0.24434609527920614</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>0.7812856265067174</v>
+      </c>
+      <c r="G78">
+        <f>(mapHeight/2)-(mapWidth*F78/(2*PI()))</f>
+        <v>3077.3619144688237</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C79">
+        <v>-13</v>
+      </c>
+      <c r="D79" s="4">
+        <f>a+b*C79+cc*C79^2+d*C79^3+e*C79^4+f*C79^5+g*C79^6+h*C79^7+i*C79^8+j*C79^9</f>
+        <v>4402.4231105626859</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>-0.22689280275926285</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>0.79543591666782831</v>
+      </c>
+      <c r="G79">
+        <f>(mapHeight/2)-(mapWidth*F79/(2*PI()))</f>
+        <v>3058.9128044501581</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C80">
+        <v>-12</v>
+      </c>
+      <c r="D80" s="4">
+        <f>a+b*C80+cc*C80^2+d*C80^3+e*C80^4+f*C80^5+g*C80^6+h*C80^7+i*C80^8+j*C80^9</f>
+        <v>4379.0747330127915</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>-0.20943951023931953</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>0.80978403319500702</v>
+      </c>
+      <c r="G80">
+        <f>(mapHeight/2)-(mapWidth*F80/(2*PI()))</f>
+        <v>3040.2057689507692</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C81">
+        <v>-11</v>
+      </c>
+      <c r="D81" s="4">
+        <f>a+b*C81+cc*C81^2+d*C81^3+e*C81^4+f*C81^5+g*C81^6+h*C81^7+i*C81^8+j*C81^9</f>
+        <v>4355.6908554222009</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>-0.19198621771937624</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>0.82433638581749569</v>
+      </c>
+      <c r="G81">
+        <f>(mapHeight/2)-(mapWidth*F81/(2*PI()))</f>
+        <v>3021.2324509830169</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C82">
+        <v>-10</v>
+      </c>
+      <c r="D82" s="4">
+        <f>a+b*C82+cc*C82^2+d*C82^3+e*C82^4+f*C82^5+g*C82^6+h*C82^7+i*C82^8+j*C82^9</f>
+        <v>4332.2671829972624</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>-0.17453292519943295</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>0.83909963117727993</v>
+      </c>
+      <c r="G82">
+        <f>(mapHeight/2)-(mapWidth*F82/(2*PI()))</f>
+        <v>3001.9841716350948</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C83">
+        <v>-9</v>
+      </c>
+      <c r="D83" s="4">
+        <f>a+b*C83+cc*C83^2+d*C83^3+e*C83^4+f*C83^5+g*C83^6+h*C83^7+i*C83^8+j*C83^9</f>
+        <v>4308.801181357222</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>-0.15707963267948966</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>0.8540806854634666</v>
+      </c>
+      <c r="G83">
+        <f>(mapHeight/2)-(mapWidth*F83/(2*PI()))</f>
+        <v>2982.4519135983619</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C84">
+        <v>-8</v>
+      </c>
+      <c r="D84" s="4">
+        <f>a+b*C84+cc*C84^2+d*C84^3+e*C84^4+f*C84^5+g*C84^6+h*C84^7+i*C84^8+j*C84^9</f>
+        <v>4285.291975415792</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>-0.13962634015954636</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>0.86928673781622667</v>
+      </c>
+      <c r="G84">
+        <f>(mapHeight/2)-(mapWidth*F84/(2*PI()))</f>
+        <v>2962.6263036913178</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C85">
+        <v>-7</v>
+      </c>
+      <c r="D85" s="4">
+        <f>a+b*C85+cc*C85^2+d*C85^3+e*C85^4+f*C85^5+g*C85^6+h*C85^7+i*C85^8+j*C85^9</f>
+        <v>4261.7402320608226</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>-0.12217304763960307</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>0.8847252645559438</v>
+      </c>
+      <c r="G85">
+        <f>(mapHeight/2)-(mapWidth*F85/(2*PI()))</f>
+        <v>2942.4975943076797</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C86">
+        <v>-6</v>
+      </c>
+      <c r="D86" s="4">
+        <f>a+b*C86+cc*C86^2+d*C86^3+e*C86^4+f*C86^5+g*C86^6+h*C86^7+i*C86^8+j*C86^9</f>
+        <v>4238.1480279362058</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>-0.10471975511965977</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>0.90040404429783993</v>
+      </c>
+      <c r="G86">
+        <f>(mapHeight/2)-(mapWidth*F86/(2*PI()))</f>
+        <v>2922.0556437099713</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C87">
+        <v>-5</v>
+      </c>
+      <c r="D87" s="4">
+        <f>a+b*C87+cc*C87^2+d*C87^3+e*C87^4+f*C87^5+g*C87^6+h*C87^7+i*C87^8+j*C87^9</f>
+        <v>4214.5187037299238</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>-8.7266462599716474E-2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>0.91633117401742337</v>
+      </c>
+      <c r="G87">
+        <f>(mapHeight/2)-(mapWidth*F87/(2*PI()))</f>
+        <v>2901.2898950834369</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C88">
+        <v>-4</v>
+      </c>
+      <c r="D88" s="4">
+        <f>a+b*C88+cc*C88^2+d*C88^3+e*C88^4+f*C88^5+g*C88^6+h*C88^7+i*C88^8+j*C88^9</f>
+        <v>4190.8567064609188</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>-6.9813170079773182E-2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>0.93251508613766154</v>
+      </c>
+      <c r="G88">
+        <f>(mapHeight/2)-(mapWidth*F88/(2*PI()))</f>
+        <v>2880.1893542578309</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C89">
+        <v>-3</v>
+      </c>
+      <c r="D89" s="4">
+        <f>a+b*C89+cc*C89^2+d*C89^3+e*C89^4+f*C89^5+g*C89^6+h*C89^7+i*C89^8+j*C89^9</f>
+        <v>4167.1674213350734</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>-5.2359877559829883E-2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>0.94896456671487961</v>
+      </c>
+      <c r="G89">
+        <f>(mapHeight/2)-(mapWidth*F89/(2*PI()))</f>
+        <v>2858.742565996693</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C90">
+        <v>-2</v>
+      </c>
+      <c r="D90" s="4">
+        <f>a+b*C90+cc*C90^2+d*C90^3+e*C90^4+f*C90^5+g*C90^6+h*C90^7+i*C90^8+j*C90^9</f>
+        <v>4143.4569948070975</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>-3.4906585039886591E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>0.96568877480707394</v>
+      </c>
+      <c r="G90">
+        <f>(mapHeight/2)-(mapWidth*F90/(2*PI()))</f>
+        <v>2836.9375887449951</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C91">
+        <v>-1</v>
+      </c>
+      <c r="D91" s="4">
+        <f>a+b*C91+cc*C91^2+d*C91^3+e*C91^4+f*C91^5+g*C91^6+h*C91^7+i*C91^8+j*C91^9</f>
+        <v>4119.7321505406153</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>-1.7453292519943295E-2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>0.98269726311568995</v>
+      </c>
+      <c r="G91">
+        <f>(mapHeight/2)-(mapWidth*F91/(2*PI()))</f>
+        <v>2814.7619677164425</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <f>a+b*C92+cc*C92^2+d*C92^3+e*C92^4+f*C92^5+g*C92^6+h*C92^7+i*C92^8+j*C92^9</f>
+        <v>4096.0000000030996</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G92">
+        <f>(mapHeight/2)-(mapWidth*F92/(2*PI()))</f>
+        <v>2792.2027061911936</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <f>a+b*C93+cc*C93^2+d*C93^3+e*C93^4+f*C93^5+g*C93^6+h*C93^7+i*C93^8+j*C93^9</f>
+        <v>4072.2678494655347</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>1.0176073929721252</v>
+      </c>
+      <c r="G93">
+        <f>(mapHeight/2)-(mapWidth*F93/(2*PI()))</f>
+        <v>2769.2462348831086</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4">
+        <f>a+b*C94+cc*C94^2+d*C94^3+e*C94^4+f*C94^5+g*C94^6+h*C94^7+i*C94^8+j*C94^9</f>
+        <v>4048.5430051989047</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>3.4906585039886591E-2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>1.0355303137905696</v>
+      </c>
+      <c r="G94">
+        <f>(mapHeight/2)-(mapWidth*F94/(2*PI()))</f>
+        <v>2745.878379222871</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" s="4">
+        <f>a+b*C95+cc*C95^2+d*C95^3+e*C95^4+f*C95^5+g*C95^6+h*C95^7+i*C95^8+j*C95^9</f>
+        <v>4024.8325786706855</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>5.2359877559829883E-2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>1.0537801252809622</v>
+      </c>
+      <c r="G95">
+        <f>(mapHeight/2)-(mapWidth*F95/(2*PI()))</f>
+        <v>2722.0843243891763</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4">
+        <f>a+b*C96+cc*C96^2+d*C96^3+e*C96^4+f*C96^5+g*C96^6+h*C96^7+i*C96^8+j*C96^9</f>
+        <v>4001.1432935445064</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>1.0723687100246826</v>
+      </c>
+      <c r="G96">
+        <f>(mapHeight/2)-(mapWidth*F96/(2*PI()))</f>
+        <v>2697.8485779045777</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97" s="4">
+        <f>a+b*C97+cc*C97^2+d*C97^3+e*C97^4+f*C97^5+g*C97^6+h*C97^7+i*C97^8+j*C97^9</f>
+        <v>3977.4812962750807</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>1.0913085010692711</v>
+      </c>
+      <c r="G97">
+        <f>(mapHeight/2)-(mapWidth*F97/(2*PI()))</f>
+        <v>2673.1549295953391</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4">
+        <f>a+b*C98+cc*C98^2+d*C98^3+e*C98^4+f*C98^5+g*C98^6+h*C98^7+i*C98^8+j*C98^9</f>
+        <v>3953.8519720682934</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>0.10471975511965977</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>1.1106125148291928</v>
+      </c>
+      <c r="G98">
+        <f>(mapHeight/2)-(mapWidth*F98/(2*PI()))</f>
+        <v>2647.9864086955054</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99" s="4">
+        <f>a+b*C99+cc*C99^2+d*C99^3+e*C99^4+f*C99^5+g*C99^6+h*C99^7+i*C99^8+j*C99^9</f>
+        <v>3930.2597679431019</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>0.12217304763960307</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>1.1302943863617527</v>
+      </c>
+      <c r="G99">
+        <f>(mapHeight/2)-(mapWidth*F99/(2*PI()))</f>
+        <v>2622.3252378542611</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" s="4">
+        <f>a+b*C100+cc*C100^2+d*C100^3+e*C100^4+f*C100^5+g*C100^6+h*C100^7+i*C100^8+j*C100^9</f>
+        <v>3906.7080245874959</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>0.13962634015954636</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>1.1503684072210094</v>
+      </c>
+      <c r="G100">
+        <f>(mapHeight/2)-(mapWidth*F100/(2*PI()))</f>
+        <v>2596.1527837821004</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4">
+        <f>a+b*C101+cc*C101^2+d*C101^3+e*C101^4+f*C101^5+g*C101^6+h*C101^7+i*C101^8+j*C101^9</f>
+        <v>3883.1988186453723</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>0.15707963267948966</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>1.1708495661125391</v>
+      </c>
+      <c r="G101">
+        <f>(mapHeight/2)-(mapWidth*F101/(2*PI()))</f>
+        <v>2569.4495042452563</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102" s="4">
+        <f>a+b*C102+cc*C102^2+d*C102^3+e*C102^4+f*C102^5+g*C102^6+h*C102^7+i*C102^8+j*C102^9</f>
+        <v>3859.7328170045976</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>1.19175359259421</v>
+      </c>
+      <c r="G102">
+        <f>(mapHeight/2)-(mapWidth*F102/(2*PI()))</f>
+        <v>2542.1948910887459</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103" s="4">
+        <f>a+b*C103+cc*C103^2+d*C103^3+e*C103^4+f*C103^5+g*C103^6+h*C103^7+i*C103^8+j*C103^9</f>
+        <v>3836.3091445788937</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>0.19198621771937624</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>1.2130970040929328</v>
+      </c>
+      <c r="G103">
+        <f>(mapHeight/2)-(mapWidth*F103/(2*PI()))</f>
+        <v>2514.3674089360634</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104" s="4">
+        <f>a+b*C104+cc*C104^2+d*C104^3+e*C104^4+f*C104^5+g*C104^6+h*C104^7+i*C104^8+j*C104^9</f>
+        <v>3812.9252669875186</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>0.20943951023931953</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>1.2348971565350515</v>
+      </c>
+      <c r="G104">
+        <f>(mapHeight/2)-(mapWidth*F104/(2*PI()))</f>
+        <v>2485.9444291774098</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C105">
+        <v>13</v>
+      </c>
+      <c r="D105" s="4">
+        <f>a+b*C105+cc*C105^2+d*C105^3+e*C105^4+f*C105^5+g*C105^6+h*C105^7+i*C105^8+j*C105^9</f>
+        <v>3789.576889436833</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>0.22689280275926285</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>1.2571722989189547</v>
+      </c>
+      <c r="G105">
+        <f>(mapHeight/2)-(mapWidth*F105/(2*PI()))</f>
+        <v>2456.9021588180708</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C106">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4">
+        <f>a+b*C106+cc*C106^2+d*C106^3+e*C106^4+f*C106^5+g*C106^6+h*C106^7+i*C106^8+j*C106^9</f>
+        <v>3766.2578729969896</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>0.24434609527920614</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>1.2799416321930785</v>
+      </c>
+      <c r="G106">
+        <f>(mapHeight/2)-(mapWidth*F106/(2*PI()))</f>
+        <v>2427.2155637134374</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107" s="4">
+        <f>a+b*C107+cc*C107^2+d*C107^3+e*C107^4+f*C107^5+g*C107^6+h*C107^7+i*C107^8+j*C107^9</f>
+        <v>3742.9601693449818</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>1.3032253728412055</v>
+      </c>
+      <c r="G107">
+        <f>(mapHeight/2)-(mapWidth*F107/(2*PI()))</f>
+        <v>2396.8582856666631</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108" s="4">
+        <f>a+b*C108+cc*C108^2+d*C108^3+e*C108^4+f*C108^5+g*C108^6+h*C108^7+i*C108^8+j*C108^9</f>
+        <v>3719.673774912198</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>0.27925268031909273</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>1.3270448216204098</v>
+      </c>
+      <c r="G108">
+        <f>(mapHeight/2)-(mapWidth*F108/(2*PI()))</f>
+        <v>2365.802552808319</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109" s="4">
+        <f>a+b*C109+cc*C109^2+d*C109^3+e*C109^4+f*C109^5+g*C109^6+h*C109^7+i*C109^8+j*C109^9</f>
+        <v>3696.3867052304636</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>0.29670597283903605</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>1.3514224379458082</v>
+      </c>
+      <c r="G109">
+        <f>(mapHeight/2)-(mapWidth*F109/(2*PI()))</f>
+        <v>2334.0190826137555</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C110">
+        <v>18</v>
+      </c>
+      <c r="D110" s="4">
+        <f>a+b*C110+cc*C110^2+d*C110^3+e*C110^4+f*C110^5+g*C110^6+h*C110^7+i*C110^8+j*C110^9</f>
+        <v>3673.0849901152978</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>1.3763819204711734</v>
+      </c>
+      <c r="G110">
+        <f>(mapHeight/2)-(mapWidth*F110/(2*PI()))</f>
+        <v>2301.4769768423162</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C111">
+        <v>19</v>
+      </c>
+      <c r="D111" s="4">
+        <f>a+b*C111+cc*C111^2+d*C111^3+e*C111^4+f*C111^5+g*C111^6+h*C111^7+i*C111^8+j*C111^9</f>
+        <v>3649.7526901587516</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>0.33161255787892258</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>1.4019482944763357</v>
+      </c>
+      <c r="G111">
+        <f>(mapHeight/2)-(mapWidth*F111/(2*PI()))</f>
+        <v>2268.1436076018817</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112" s="4">
+        <f>a+b*C112+cc*C112^2+d*C112^3+e*C112^4+f*C112^5+g*C112^6+h*C112^7+i*C112^8+j*C112^9</f>
+        <v>3626.3719348267573</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>1.4281480067421144</v>
+      </c>
+      <c r="G112">
+        <f>(mapHeight/2)-(mapWidth*F112/(2*PI()))</f>
+        <v>2233.98449365119</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C113">
+        <v>21</v>
+      </c>
+      <c r="D113" s="4">
+        <f>a+b*C113+cc*C113^2+d*C113^3+e*C113^4+f*C113^5+g*C113^6+h*C113^7+i*C113^8+j*C113^9</f>
+        <v>3602.9229822673997</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>0.36651914291880922</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>1.4550090286724449</v>
+      </c>
+      <c r="G113">
+        <f>(mapHeight/2)-(mapWidth*F113/(2*PI()))</f>
+        <v>2198.9631659494862</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114" s="4">
+        <f>a+b*C114+cc*C114^2+d*C114^3+e*C114^4+f*C114^5+g*C114^6+h*C114^7+i*C114^8+j*C114^9</f>
+        <v>3579.3843007368664</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>0.38397243543875248</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>1.4825609685127403</v>
+      </c>
+      <c r="G114">
+        <f>(mapHeight/2)-(mapWidth*F114/(2*PI()))</f>
+        <v>2163.0410213465257</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C115">
+        <v>23</v>
+      </c>
+      <c r="D115" s="4">
+        <f>a+b*C115+cc*C115^2+d*C115^3+e*C115^4+f*C115^5+g*C115^6+h*C115^7+i*C115^8+j*C115^9</f>
+        <v>3555.7326713391762</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>0.40142572795869574</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>1.5108351936149007</v>
+      </c>
+      <c r="G115">
+        <f>(mapHeight/2)-(mapWidth*F115/(2*PI()))</f>
+        <v>2126.1771631737884</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C116">
+        <v>24</v>
+      </c>
+      <c r="D116" s="4">
+        <f>a+b*C116+cc*C116^2+d*C116^3+e*C116^4+f*C116^5+g*C116^6+h*C116^7+i*C116^8+j*C116^9</f>
+        <v>3531.9433115539264</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>0.41887902047863906</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>1.5398649638145827</v>
+      </c>
+      <c r="G116">
+        <f>(mapHeight/2)-(mapWidth*F116/(2*PI()))</f>
+        <v>2088.3282273475511</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C117">
+        <v>25</v>
+      </c>
+      <c r="D117" s="4">
+        <f>a+b*C117+cc*C117^2+d*C117^3+e*C117^4+f*C117^5+g*C117^6+h*C117^7+i*C117^8+j*C117^9</f>
+        <v>3507.9900187934463</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>1.5696855771174902</v>
+      </c>
+      <c r="G117">
+        <f>(mapHeight/2)-(mapWidth*F117/(2*PI()))</f>
+        <v>2049.4481924235015</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118" s="4">
+        <f>a+b*C118+cc*C118^2+d*C118^3+e*C118^4+f*C118^5+g*C118^6+h*C118^7+i*C118^8+j*C118^9</f>
+        <v>3483.8453329867702</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>0.4537856055185257</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>1.6003345290410507</v>
+      </c>
+      <c r="G118">
+        <f>(mapHeight/2)-(mapWidth*F118/(2*PI()))</f>
+        <v>2009.4881718474871</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C119">
+        <v>27</v>
+      </c>
+      <c r="D119" s="4">
+        <f>a+b*C119+cc*C119^2+d*C119^3+e*C119^4+f*C119^5+g*C119^6+h*C119^7+i*C119^8+j*C119^9</f>
+        <v>3459.4807169327173</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>1.6318516871287894</v>
+      </c>
+      <c r="G119">
+        <f>(mapHeight/2)-(mapWidth*F119/(2*PI()))</f>
+        <v>1968.3961864241492</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C120">
+        <v>28</v>
+      </c>
+      <c r="D120" s="4">
+        <f>a+b*C120+cc*C120^2+d*C120^3+e*C120^4+f*C120^5+g*C120^6+h*C120^7+i*C120^8+j*C120^9</f>
+        <v>3434.8667528982878</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>0.48869219055841229</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>1.6642794823505174</v>
+      </c>
+      <c r="G120">
+        <f>(mapHeight/2)-(mapWidth*F120/(2*PI()))</f>
+        <v>1926.1169147698738</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C121">
+        <v>29</v>
+      </c>
+      <c r="D121" s="4">
+        <f>a+b*C121+cc*C121^2+d*C121^3+e*C121^4+f*C121^5+g*C121^6+h*C121^7+i*C121^8+j*C121^9</f>
+        <v>3409.9733536612571</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>0.50614548307835561</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>1.6976631193260889</v>
+      </c>
+      <c r="G121">
+        <f>(mapHeight/2)-(mapWidth*F121/(2*PI()))</f>
+        <v>1882.5914192236282</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="D122" s="4">
+        <f>a+b*C122+cc*C122^2+d*C122^3+e*C122^4+f*C122^5+g*C122^6+h*C122^7+i*C122^8+j*C122^9</f>
+        <v>3384.7699859075469</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>1.7320508075688767</v>
+      </c>
+      <c r="G122">
+        <f>(mapHeight/2)-(mapWidth*F122/(2*PI()))</f>
+        <v>1837.7568443523405</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C123">
+        <v>31</v>
+      </c>
+      <c r="D123" s="4">
+        <f>a+b*C123+cc*C123^2+d*C123^3+e*C123^4+f*C123^5+g*C123^6+h*C123^7+i*C123^8+j*C123^9</f>
+        <v>3359.2259035945444</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>0.54105206811824214</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>1.7674940162428909</v>
+      </c>
+      <c r="G123">
+        <f>(mapHeight/2)-(mapWidth*F123/(2*PI()))</f>
+        <v>1791.5460847992599</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C124">
+        <v>32</v>
+      </c>
+      <c r="D124" s="4">
+        <f>a+b*C124+cc*C124^2+d*C124^3+e*C124^4+f*C124^5+g*C124^6+h*C124^7+i*C124^8+j*C124^9</f>
+        <v>3333.3103885809332</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>0.55850536063818546</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>1.8040477552714236</v>
+      </c>
+      <c r="G124">
+        <f>(mapHeight/2)-(mapWidth*F124/(2*PI()))</f>
+        <v>1743.8874187752658</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="D125" s="4">
+        <f>a+b*C125+cc*C125^2+d*C125^3+e*C125^4+f*C125^5+g*C125^6+h*C125^7+i*C125^8+j*C125^9</f>
+        <v>3306.9929955021125</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>1.8417708860334581</v>
+      </c>
+      <c r="G125">
+        <f>(mapHeight/2)-(mapWidth*F125/(2*PI()))</f>
+        <v>1694.7041029737293</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C126">
+        <v>34</v>
+      </c>
+      <c r="D126" s="4">
+        <f>a+b*C126+cc*C126^2+d*C126^3+e*C126^4+f*C126^5+g*C126^6+h*C126^7+i*C126^8+j*C126^9</f>
+        <v>3280.2437975374605</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>0.59341194567807209</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>1.8807264653463318</v>
+      </c>
+      <c r="G126">
+        <f>(mapHeight/2)-(mapWidth*F126/(2*PI()))</f>
+        <v>1643.9139240868503</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C127">
+        <v>35</v>
+      </c>
+      <c r="D127" s="4">
+        <f>a+b*C127+cc*C127^2+d*C127^3+e*C127^4+f*C127^5+g*C127^6+h*C127^7+i*C127^8+j*C127^9</f>
+        <v>3253.0336293719956</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>1.9209821269711662</v>
+      </c>
+      <c r="G127">
+        <f>(mapHeight/2)-(mapWidth*F127/(2*PI()))</f>
+        <v>1591.4287013999083</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C128">
+        <v>36</v>
+      </c>
+      <c r="D128" s="4">
+        <f>a+b*C128+cc*C128^2+d*C128^3+e*C128^4+f*C128^5+g*C128^6+h*C128^7+i*C128^8+j*C128^9</f>
+        <v>3225.334323300046</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>1.9626105055051504</v>
+      </c>
+      <c r="G128">
+        <f>(mapHeight/2)-(mapWidth*F128/(2*PI()))</f>
+        <v>1537.1537341216508</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C129">
+        <v>37</v>
+      </c>
+      <c r="D129" s="4">
+        <f>a+b*C129+cc*C129^2+d*C129^3+e*C129^4+f*C129^5+g*C129^6+h*C129^7+i*C129^8+j*C129^9</f>
+        <v>3197.1189340526171</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>0.64577182323790194</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>2.0056897082590193</v>
+      </c>
+      <c r="G129">
+        <f>(mapHeight/2)-(mapWidth*F129/(2*PI()))</f>
+        <v>1480.9871861517158</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C130">
+        <v>38</v>
+      </c>
+      <c r="D130" s="4">
+        <f>a+b*C130+cc*C130^2+d*C130^3+e*C130^4+f*C130^5+g*C130^6+h*C130^7+i*C130^8+j*C130^9</f>
+        <v>3168.3619475530472</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>0.66322511575784515</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>2.050303841579296</v>
+      </c>
+      <c r="G130">
+        <f>(mapHeight/2)-(mapWidth*F130/(2*PI()))</f>
+        <v>1422.8193998631136</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C131">
+        <v>39</v>
+      </c>
+      <c r="D131" s="4">
+        <f>a+b*C131+cc*C131^2+d*C131^3+e*C131^4+f*C131^5+g*C131^6+h*C131^7+i*C131^8+j*C131^9</f>
+        <v>3139.039468417403</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E182" si="4">C131*PI()/180</f>
+        <v>0.68067840827778847</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F182" si="5">N(TAN((PI()/4)+(E131/2)))</f>
+        <v>2.0965435990881738</v>
+      </c>
+      <c r="G131">
+        <f>(mapHeight/2)-(mapWidth*F131/(2*PI()))</f>
+        <v>1362.5321291566634</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C132">
+        <v>40</v>
+      </c>
+      <c r="D132" s="4">
+        <f>a+b*C132+cc*C132^2+d*C132^3+e*C132^4+f*C132^5+g*C132^6+h*C132^7+i*C132^8+j*C132^9</f>
+        <v>3109.129380616841</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="5"/>
+        <v>2.1445069205095586</v>
+      </c>
+      <c r="G132">
+        <f>(mapHeight/2)-(mapWidth*F132/(2*PI()))</f>
+        <v>1299.99768048538</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C133">
+        <v>41</v>
+      </c>
+      <c r="D133" s="4">
+        <f>a+b*C133+cc*C133^2+d*C133^3+e*C133^4+f*C133^5+g*C133^6+h*C133^7+i*C133^8+j*C133^9</f>
+        <v>3078.6114753088013</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>0.715584993317675</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="5"/>
+        <v>2.1942997311650374</v>
+      </c>
+      <c r="G133">
+        <f>(mapHeight/2)-(mapWidth*F133/(2*PI()))</f>
+        <v>1235.0779487016325</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C134">
+        <v>42</v>
+      </c>
+      <c r="D134" s="4">
+        <f>a+b*C134+cc*C134^2+d*C134^3+e*C134^4+f*C134^5+g*C134^6+h*C134^7+i*C134^8+j*C134^9</f>
+        <v>3047.4675394225069</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>0.73303828583761843</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>2.2460367739042164</v>
+      </c>
+      <c r="G134">
+        <f>(mapHeight/2)-(mapWidth*F134/(2*PI()))</f>
+        <v>1167.6233323886199</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C135">
+        <v>43</v>
+      </c>
+      <c r="D135" s="4">
+        <f>a+b*C135+cc*C135^2+d*C135^3+e*C135^4+f*C135^5+g*C135^6+h*C135^7+i*C135^8+j*C135^9</f>
+        <v>3015.6813981517012</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>0.75049157835756164</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>2.2998425472362567</v>
+      </c>
+      <c r="G135">
+        <f>(mapHeight/2)-(mapWidth*F135/(2*PI()))</f>
+        <v>1097.4715107270158</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C136">
+        <v>44</v>
+      </c>
+      <c r="D136" s="4">
+        <f>a+b*C136+cc*C136^2+d*C136^3+e*C136^4+f*C136^5+g*C136^6+h*C136^7+i*C136^8+j*C136^9</f>
+        <v>2983.2389040639841</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>0.76794487087750496</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>2.3558523658237531</v>
+      </c>
+      <c r="G136">
+        <f>(mapHeight/2)-(mapWidth*F136/(2*PI()))</f>
+        <v>1024.446060825916</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C137">
+        <v>45</v>
+      </c>
+      <c r="D137" s="4">
+        <f>a+b*C137+cc*C137^2+d*C137^3+e*C137^4+f*C137^5+g*C137^6+h*C137^7+i*C137^8+j*C137^9</f>
+        <v>2950.1278650814011</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>2.4142135623730949</v>
+      </c>
+      <c r="G137">
+        <f>(mapHeight/2)-(mapWidth*F137/(2*PI()))</f>
+        <v>948.35489070144013</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C138">
+        <v>46</v>
+      </c>
+      <c r="D138" s="4">
+        <f>a+b*C138+cc*C138^2+d*C138^3+e*C138^4+f*C138^5+g*C138^6+h*C138^7+i*C138^8+j*C138^9</f>
+        <v>2916.3379031211448</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>0.80285145591739149</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>2.4750868534162946</v>
+      </c>
+      <c r="G138">
+        <f>(mapHeight/2)-(mapWidth*F138/(2*PI()))</f>
+        <v>868.9884585740806</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C139">
+        <v>47</v>
+      </c>
+      <c r="D139" s="4">
+        <f>a+b*C139+cc*C139^2+d*C139^3+e*C139^4+f*C139^5+g*C139^6+h*C139^7+i*C139^8+j*C139^9</f>
+        <v>2881.8602347083961</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>0.82030474843733492</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>2.5386478956643073</v>
+      </c>
+      <c r="G139">
+        <f>(mapHeight/2)-(mapWidth*F139/(2*PI()))</f>
+        <v>786.11774369945442</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C140">
+        <v>48</v>
+      </c>
+      <c r="D140" s="4">
+        <f>a+b*C140+cc*C140^2+d*C140^3+e*C140^4+f*C140^5+g*C140^6+h*C140^7+i*C140^8+j*C140^9</f>
+        <v>2846.6873643853232</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>0.83775804095727813</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>2.6050890646938005</v>
+      </c>
+      <c r="G140">
+        <f>(mapHeight/2)-(mapWidth*F140/(2*PI()))</f>
+        <v>699.49192732130768</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C141">
+        <v>49</v>
+      </c>
+      <c r="D141" s="4">
+        <f>a+b*C141+cc*C141^2+d*C141^3+e*C141^4+f*C141^5+g*C141^6+h*C141^7+i*C141^8+j*C141^9</f>
+        <v>2810.8126812412415</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>0.85521133347722145</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>2.674621493926824</v>
+      </c>
+      <c r="G141">
+        <f>(mapHeight/2)-(mapWidth*F141/(2*PI()))</f>
+        <v>608.83573425533905</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C142">
+        <v>50</v>
+      </c>
+      <c r="D142" s="4">
+        <f>a+b*C142+cc*C142^2+d*C142^3+e*C142^4+f*C142^5+g*C142^6+h*C142^7+i*C142^8+j*C142^9</f>
+        <v>2774.2299483787756</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>2.7474774194546216</v>
+      </c>
+      <c r="G142">
+        <f>(mapHeight/2)-(mapWidth*F142/(2*PI()))</f>
+        <v>513.84637571426083</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C143">
+        <v>51</v>
+      </c>
+      <c r="D143" s="4">
+        <f>a+b*C143+cc*C143^2+d*C143^3+e*C143^4+f*C143^5+g*C143^6+h*C143^7+i*C143^8+j*C143^9</f>
+        <v>2736.9326746096458</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>0.89011791851710798</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>2.8239128856007989</v>
+      </c>
+      <c r="G143">
+        <f>(mapHeight/2)-(mapWidth*F143/(2*PI()))</f>
+        <v>414.19002180186044</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C144">
+        <v>52</v>
+      </c>
+      <c r="D144" s="4">
+        <f>a+b*C144+cc*C144^2+d*C144^3+e*C144^4+f*C144^5+g*C144^6+h*C144^7+i*C144^8+j*C144^9</f>
+        <v>2698.9133571413699</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="4"/>
+        <v>0.90757121103705141</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>2.9042108776758222</v>
+      </c>
+      <c r="G144">
+        <f>(mapHeight/2)-(mapWidth*F144/(2*PI()))</f>
+        <v>309.49771703616398</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C145">
+        <v>53</v>
+      </c>
+      <c r="D145" s="4">
+        <f>a+b*C145+cc*C145^2+d*C145^3+e*C145^4+f*C145^5+g*C145^6+h*C145^7+i*C145^8+j*C145^9</f>
+        <v>2660.1625834727583</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="4"/>
+        <v>0.92502450355699462</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>2.9886849627428935</v>
+      </c>
+      <c r="G145">
+        <f>(mapHeight/2)-(mapWidth*F145/(2*PI()))</f>
+        <v>199.36063352874135</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C146">
+        <v>54</v>
+      </c>
+      <c r="D146" s="4">
+        <f>a+b*C146+cc*C146^2+d*C146^3+e*C146^4+f*C146^5+g*C146^6+h*C146^7+i*C146^8+j*C146^9</f>
+        <v>2620.6679801616001</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="4"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>3.0776835371752527</v>
+      </c>
+      <c r="G146">
+        <f>(mapHeight/2)-(mapWidth*F146/(2*PI()))</f>
+        <v>83.324533030989642</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C147">
+        <v>55</v>
+      </c>
+      <c r="D147" s="4">
+        <f>a+b*C147+cc*C147^2+d*C147^3+e*C147^4+f*C147^5+g*C147^6+h*C147^7+i*C147^8+j*C147^9</f>
+        <v>2580.4129955623034</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="4"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>3.1715948023632108</v>
+      </c>
+      <c r="G147">
+        <f>(mapHeight/2)-(mapWidth*F147/(2*PI()))</f>
+        <v>-39.116720379231083</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C148">
+        <v>56</v>
+      </c>
+      <c r="D148" s="4">
+        <f>a+b*C148+cc*C148^2+d*C148^3+e*C148^4+f*C148^5+g*C148^6+h*C148^7+i*C148^8+j*C148^9</f>
+        <v>2539.3755030546308</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="4"/>
+        <v>0.97738438111682457</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>3.2708526184841404</v>
+      </c>
+      <c r="G148">
+        <f>(mapHeight/2)-(mapWidth*F148/(2*PI()))</f>
+        <v>-168.52879242707149</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C149">
+        <v>57</v>
+      </c>
+      <c r="D149" s="4">
+        <f>a+b*C149+cc*C149^2+d*C149^3+e*C149^4+f*C149^5+g*C149^6+h*C149^7+i*C149^8+j*C149^9</f>
+        <v>2497.5262106968316</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="4"/>
+        <v>0.99483767363676778</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>3.3759434225912446</v>
+      </c>
+      <c r="G149">
+        <f>(mapHeight/2)-(mapWidth*F149/(2*PI()))</f>
+        <v>-305.54589842610494</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C150">
+        <v>58</v>
+      </c>
+      <c r="D150" s="4">
+        <f>a+b*C150+cc*C150^2+d*C150^3+e*C150^4+f*C150^5+g*C150^6+h*C150^7+i*C150^8+j*C150^9</f>
+        <v>2454.8268626376721</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="4"/>
+        <v>1.0122909661567112</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>3.4874144438409087</v>
+      </c>
+      <c r="G150">
+        <f>(mapHeight/2)-(mapWidth*F150/(2*PI()))</f>
+        <v>-450.88151426952118</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C151">
+        <v>59</v>
+      </c>
+      <c r="D151" s="4">
+        <f>a+b*C151+cc*C151^2+d*C151^3+e*C151^4+f*C151^5+g*C151^6+h*C151^7+i*C151^8+j*C151^9</f>
+        <v>2411.228217011866</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="4"/>
+        <v>1.0297442586766543</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>3.6058835087608729</v>
+      </c>
+      <c r="G151">
+        <f>(mapHeight/2)-(mapWidth*F151/(2*PI()))</f>
+        <v>-605.34116051223009</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C152">
+        <v>60</v>
+      </c>
+      <c r="D152" s="4">
+        <f>a+b*C152+cc*C152^2+d*C152^3+e*C152^4+f*C152^5+g*C152^6+h*C152^7+i*C152^8+j*C152^9</f>
+        <v>2366.6677844224055</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="4"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>3.7320508075688745</v>
+      </c>
+      <c r="G152">
+        <f>(mapHeight/2)-(mapWidth*F152/(2*PI()))</f>
+        <v>-769.83774326526964</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C153">
+        <v>61</v>
+      </c>
+      <c r="D153" s="4">
+        <f>a+b*C153+cc*C153^2+d*C153^3+e*C153^4+f*C153^5+g*C153^6+h*C153^7+i*C153^8+j*C153^9</f>
+        <v>2321.0673104811181</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="4"/>
+        <v>1.064650843716541</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>3.8667130948987372</v>
+      </c>
+      <c r="G153">
+        <f>(mapHeight/2)-(mapWidth*F153/(2*PI()))</f>
+        <v>-945.41006906404891</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C154">
+        <v>62</v>
+      </c>
+      <c r="D154" s="4">
+        <f>a+b*C154+cc*C154^2+d*C154^3+e*C154^4+f*C154^5+g*C154^6+h*C154^7+i*C154^8+j*C154^9</f>
+        <v>2274.3299852355931</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="4"/>
+        <v>1.0821041362364843</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>4.0107809335358455</v>
+      </c>
+      <c r="G154">
+        <f>(mapHeight/2)-(mapWidth*F154/(2*PI()))</f>
+        <v>-1133.2453272039947</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C155">
+        <v>63</v>
+      </c>
+      <c r="D155" s="4">
+        <f>a+b*C155+cc*C155^2+d*C155^3+e*C155^4+f*C155^5+g*C155^6+h*C155^7+i*C155^8+j*C155^9</f>
+        <v>2226.3373616562835</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="4"/>
+        <v>1.0995574287564276</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>4.1652997700904164</v>
+      </c>
+      <c r="G155">
+        <f>(mapHeight/2)-(mapWidth*F155/(2*PI()))</f>
+        <v>-1334.7065681463291</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C156">
+        <v>64</v>
+      </c>
+      <c r="D156" s="4">
+        <f>a+b*C156+cc*C156^2+d*C156^3+e*C156^4+f*C156^5+g*C156^6+h*C156^7+i*C156^8+j*C156^9</f>
+        <v>2176.9459646922005</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="4"/>
+        <v>1.1170107212763709</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>4.3314758742841528</v>
+      </c>
+      <c r="G156">
+        <f>(mapHeight/2)-(mapWidth*F156/(2*PI()))</f>
+        <v>-1551.3665230898132</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C157">
+        <v>65</v>
+      </c>
+      <c r="D157" s="4">
+        <f>a+b*C157+cc*C157^2+d*C157^3+e*C157^4+f*C157^5+g*C157^6+h*C157^7+i*C157^8+j*C157^9</f>
+        <v>2125.9835717271121</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="4"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>4.5107085036620562</v>
+      </c>
+      <c r="G157">
+        <f>(mapHeight/2)-(mapWidth*F157/(2*PI()))</f>
+        <v>-1785.0495402349607</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C158">
+        <v>66</v>
+      </c>
+      <c r="D158" s="4">
+        <f>a+b*C158+cc*C158^2+d*C158^3+e*C158^4+f*C158^5+g*C158^6+h*C158^7+i*C158^8+j*C158^9</f>
+        <v>2073.2451445805959</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>1.1519173063162575</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>4.7046301094784564</v>
+      </c>
+      <c r="G158">
+        <f>(mapHeight/2)-(mapWidth*F158/(2*PI()))</f>
+        <v>-2037.8840051094412</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C159">
+        <v>67</v>
+      </c>
+      <c r="D159" s="4">
+        <f>a+b*C159+cc*C159^2+d*C159^3+e*C159^4+f*C159^5+g*C159^6+h*C159^7+i*C159^8+j*C159^9</f>
+        <v>2018.4883924995979</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="4"/>
+        <v>1.1693705988362006</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>4.9151570310712049</v>
+      </c>
+      <c r="G159">
+        <f>(mapHeight/2)-(mapWidth*F159/(2*PI()))</f>
+        <v>-2312.3684357559659</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C160">
+        <v>68</v>
+      </c>
+      <c r="D160" s="4">
+        <f>a+b*C160+cc*C160^2+d*C160^3+e*C160^4+f*C160^5+g*C160^6+h*C160^7+i*C160^8+j*C160^9</f>
+        <v>1961.4289448764107</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="4"/>
+        <v>1.1868238913561442</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>5.1445540159703071</v>
+      </c>
+      <c r="G160">
+        <f>(mapHeight/2)-(mapWidth*F160/(2*PI()))</f>
+        <v>-2611.4556038753144</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C161">
+        <v>69</v>
+      </c>
+      <c r="D161" s="4">
+        <f>a+b*C161+cc*C161^2+d*C161^3+e*C161^4+f*C161^5+g*C161^6+h*C161^7+i*C161^8+j*C161^9</f>
+        <v>1901.7351117081207</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="4"/>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>5.3955171743191315</v>
+      </c>
+      <c r="G161">
+        <f>(mapHeight/2)-(mapWidth*F161/(2*PI()))</f>
+        <v>-2938.6606905762228</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C162">
+        <v>70</v>
+      </c>
+      <c r="D162" s="4">
+        <f>a+b*C162+cc*C162^2+d*C162^3+e*C162^4+f*C162^5+g*C162^6+h*C162^7+i*C162^8+j*C162^9</f>
+        <v>1839.0222090806285</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="4"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>5.6712818196177066</v>
+      </c>
+      <c r="G162">
+        <f>(mapHeight/2)-(mapWidth*F162/(2*PI()))</f>
+        <v>-3298.201888844651</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C163">
+        <v>71</v>
+      </c>
+      <c r="D163" s="4">
+        <f>a+b*C163+cc*C163^2+d*C163^3+e*C163^4+f*C163^5+g*C163^6+h*C163^7+i*C163^8+j*C163^9</f>
+        <v>1772.8464262173211</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="4"/>
+        <v>1.2391837689159739</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>5.9757643644330667</v>
+      </c>
+      <c r="G163">
+        <f>(mapHeight/2)-(mapWidth*F163/(2*PI()))</f>
+        <v>-3695.1854067869353</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C164">
+        <v>72</v>
+      </c>
+      <c r="D164" s="4">
+        <f>a+b*C164+cc*C164^2+d*C164^3+e*C164^4+f*C164^5+g*C164^6+h*C164^7+i*C164^8+j*C164^9</f>
+        <v>1702.6982098783562</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="4"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>6.3137515146750411</v>
+      </c>
+      <c r="G164">
+        <f>(mapHeight/2)-(mapWidth*F164/(2*PI()))</f>
+        <v>-4135.8521386145731</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C165">
+        <v>73</v>
+      </c>
+      <c r="D165" s="4">
+        <f>a+b*C165+cc*C165^2+d*C165^3+e*C165^4+f*C165^5+g*C165^6+h*C165^7+i*C165^8+j*C165^9</f>
+        <v>1627.9951411312866</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="4"/>
+        <v>1.2740903539558606</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>6.6911562383174026</v>
+      </c>
+      <c r="G165">
+        <f>(mapHeight/2)-(mapWidth*F165/(2*PI()))</f>
+        <v>-4627.9113959701444</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C166">
+        <v>74</v>
+      </c>
+      <c r="D166" s="4">
+        <f>a+b*C166+cc*C166^2+d*C166^3+e*C166^4+f*C166^5+g*C166^6+h*C166^7+i*C166^8+j*C166^9</f>
+        <v>1548.0742787374829</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="4"/>
+        <v>1.2915436464758039</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>7.115369722384207</v>
+      </c>
+      <c r="G166">
+        <f>(mapHeight/2)-(mapWidth*F166/(2*PI()))</f>
+        <v>-5180.9997884936492</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C167">
+        <v>75</v>
+      </c>
+      <c r="D167" s="4">
+        <f>a+b*C167+cc*C167^2+d*C167^3+e*C167^4+f*C167^5+g*C167^6+h*C167^7+i*C167^8+j*C167^9</f>
+        <v>1462.183942611382</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="4"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>7.5957541127251558</v>
+      </c>
+      <c r="G167">
+        <f>(mapHeight/2)-(mapWidth*F167/(2*PI()))</f>
+        <v>-5807.3236566081705</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C168">
+        <v>76</v>
+      </c>
+      <c r="D168" s="4">
+        <f>a+b*C168+cc*C168^2+d*C168^3+e*C168^4+f*C168^5+g*C168^6+h*C168^7+i*C168^8+j*C168^9</f>
+        <v>1369.474910011138</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="4"/>
+        <v>1.3264502315156903</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>8.1443464279745932</v>
+      </c>
+      <c r="G168">
+        <f>(mapHeight/2)-(mapWidth*F168/(2*PI()))</f>
+        <v>-6522.5768326346952</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C169">
+        <v>77</v>
+      </c>
+      <c r="D169" s="4">
+        <f>a+b*C169+cc*C169^2+d*C169^3+e*C169^4+f*C169^5+g*C169^6+h*C169^7+i*C169^8+j*C169^9</f>
+        <v>1268.9909963096629</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="4"/>
+        <v>1.3439035240356338</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>8.776887356869949</v>
+      </c>
+      <c r="G169">
+        <f>(mapHeight/2)-(mapWidth*F169/(2*PI()))</f>
+        <v>-7347.2819839517688</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C170">
+        <v>78</v>
+      </c>
+      <c r="D170" s="4">
+        <f>a+b*C170+cc*C170^2+d*C170^3+e*C170^4+f*C170^5+g*C170^6+h*C170^7+i*C170^8+j*C170^9</f>
+        <v>1159.6589913743924</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="4"/>
+        <v>1.3613568165555769</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>9.5143644542225658</v>
+      </c>
+      <c r="G170">
+        <f>(mapHeight/2)-(mapWidth*F170/(2*PI()))</f>
+        <v>-8308.8026277260851</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C171">
+        <v>79</v>
+      </c>
+      <c r="D171" s="4">
+        <f>a+b*C171+cc*C171^2+d*C171^3+e*C171^4+f*C171^5+g*C171^6+h*C171^7+i*C171^8+j*C171^9</f>
+        <v>1040.2779217523416</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="4"/>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>10.38539708013815</v>
+      </c>
+      <c r="G171">
+        <f>(mapHeight/2)-(mapWidth*F171/(2*PI()))</f>
+        <v>-9444.4526082140019</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C172">
+        <v>80</v>
+      </c>
+      <c r="D172" s="4">
+        <f>a+b*C172+cc*C172^2+d*C172^3+e*C172^4+f*C172^5+g*C172^6+h*C172^7+i*C172^8+j*C172^9</f>
+        <v>909.50760801419801</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="4"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>11.430052302761348</v>
+      </c>
+      <c r="G172">
+        <f>(mapHeight/2)-(mapWidth*F172/(2*PI()))</f>
+        <v>-10806.471260433365</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C173">
+        <v>81</v>
+      </c>
+      <c r="D173" s="4">
+        <f>a+b*C173+cc*C173^2+d*C173^3+e*C173^4+f*C173^5+g*C173^6+h*C173^7+i*C173^8+j*C173^9</f>
+        <v>765.85648575723189</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="4"/>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>12.706204736174696</v>
+      </c>
+      <c r="G173">
+        <f>(mapHeight/2)-(mapWidth*F173/(2*PI()))</f>
+        <v>-12470.315349605211</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C174">
+        <v>82</v>
+      </c>
+      <c r="D174" s="4">
+        <f>a+b*C174+cc*C174^2+d*C174^3+e*C174^4+f*C174^5+g*C174^6+h*C174^7+i*C174^8+j*C174^9</f>
+        <v>607.66865790185693</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="4"/>
+        <v>1.43116998663535</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>14.300666256711896</v>
+      </c>
+      <c r="G174">
+        <f>(mapHeight/2)-(mapWidth*F174/(2*PI()))</f>
+        <v>-14549.169965163888</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C175">
+        <v>83</v>
+      </c>
+      <c r="D175" s="4">
+        <f>a+b*C175+cc*C175^2+d*C175^3+e*C175^4+f*C175^5+g*C175^6+h*C175^7+i*C175^8+j*C175^9</f>
+        <v>433.11014504040304</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="4"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>16.349855476099663</v>
+      </c>
+      <c r="G175">
+        <f>(mapHeight/2)-(mapWidth*F175/(2*PI()))</f>
+        <v>-17220.897323903839</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C176">
+        <v>84</v>
+      </c>
+      <c r="D176" s="4">
+        <f>a+b*C176+cc*C176^2+d*C176^3+e*C176^4+f*C176^5+g*C176^6+h*C176^7+i*C176^8+j*C176^9</f>
+        <v>240.1542997097049</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="4"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>19.081136687728243</v>
+      </c>
+      <c r="G176">
+        <f>(mapHeight/2)-(mapWidth*F176/(2*PI()))</f>
+        <v>-20781.93437625602</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C177">
+        <v>85</v>
+      </c>
+      <c r="D177" s="4">
+        <f>a+b*C177+cc*C177^2+d*C177^3+e*C177^4+f*C177^5+g*C177^6+h*C177^7+i*C177^8+j*C177^9</f>
+        <v>26.566349560530398</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="4"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>22.903765548431192</v>
+      </c>
+      <c r="G177">
+        <f>(mapHeight/2)-(mapWidth*F177/(2*PI()))</f>
+        <v>-25765.867540075968</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C178">
+        <v>86</v>
+      </c>
+      <c r="D178" s="4">
+        <f>a+b*C178+cc*C178^2+d*C178^3+e*C178^4+f*C178^5+g*C178^6+h*C178^7+i*C178^8+j*C178^9</f>
+        <v>-210.11296651223802</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="4"/>
+        <v>1.5009831567151233</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>28.636253282915515</v>
+      </c>
+      <c r="G178">
+        <f>(mapHeight/2)-(mapWidth*F178/(2*PI()))</f>
+        <v>-33239.869535088801</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C179">
+        <v>87</v>
+      </c>
+      <c r="D179" s="4">
+        <f>a+b*C179+cc*C179^2+d*C179^3+e*C179^4+f*C179^5+g*C179^6+h*C179^7+i*C179^8+j*C179^9</f>
+        <v>-472.58470613544159</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="4"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>38.188459297025304</v>
+      </c>
+      <c r="G179">
+        <f>(mapHeight/2)-(mapWidth*F179/(2*PI()))</f>
+        <v>-45694.009886189357</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C180">
+        <v>88</v>
+      </c>
+      <c r="D180" s="4">
+        <f>a+b*C180+cc*C180^2+d*C180^3+e*C180^4+f*C180^5+g*C180^6+h*C180^7+i*C180^8+j*C180^9</f>
+        <v>-763.81001290771019</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="4"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>57.289961630759144</v>
+      </c>
+      <c r="G180">
+        <f>(mapHeight/2)-(mapWidth*F180/(2*PI()))</f>
+        <v>-70598.496936594136</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C181">
+        <v>89</v>
+      </c>
+      <c r="D181" s="4">
+        <f>a+b*C181+cc*C181^2+d*C181^3+e*C181^4+f*C181^5+g*C181^6+h*C181^7+i*C181^8+j*C181^9</f>
+        <v>-1087.0294262646476</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="4"/>
+        <v>1.5533430342749535</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>114.58865012931011</v>
+      </c>
+      <c r="G181">
+        <f>(mapHeight/2)-(mapWidth*F181/(2*PI()))</f>
+        <v>-145304.37193979867</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C182">
+        <v>90</v>
+      </c>
+      <c r="D182" s="4">
+        <f>a+b*C182+cc*C182^2+d*C182^3+e*C182^4+f*C182^5+g*C182^6+h*C182^7+i*C182^8+j*C182^9</f>
+        <v>-1445.7832514438451</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="4"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>1.6324552277619072E+16</v>
+      </c>
+      <c r="G182">
+        <f>(mapHeight/2)-(mapWidth*F182/(2*PI()))</f>
+        <v>-2.1283907082200134E+19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>